--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,4850 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>188</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nike Killshot 2 Leather</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/dlyapben5bidcjm1vmfh/calzado-killshot-2-leather-Xp4rM5.png</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>189</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nike Blazer Mid Pro Club</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8e158065-9466-46b0-9f94-32d15c271d0c/calzado-blazer-mid-pro-club-gBxRTL.png</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>190</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3e7dead-1ad2-4c40-996d-93ebc9df0fca/calzado-dunk-low-retro.png</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>191</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Court Borough Low</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/xntdzxgy1gmzkl1adtoi/calzado-court-borough-low-1Enw4k.png</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2599</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>192</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nike Air Force 1 High '07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6a91c26b-7471-459d-91c5-30665fdc144c/calzado-air-force-1-high-07-VqQK8m.png</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>799</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>193</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Retro</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/fd17b420-b388-4c8a-aaaa-e0a98ddf175f/calzado-dunk-high-retro-1PhQRw.png</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>194</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Blazer Low '77 Vintage</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f87ff87c-99df-441d-80d5-ed5866d8d4a7/calzado-blazer-low-77-vintage-zvx59l.png</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2319</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>195</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Court Borough Low Premium</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8b2c6ecf-7e88-4427-8a59-c9ee1d097e93/calzado-court-borough-low-premium-NVLMDS.png</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>196</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Blazer Mid '77 Vintage</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4fd2bc0a-f4bc-49cf-b0a3-63ea10cfb895/calzado-blazer-mid-77-vintage-CBDjT0.png</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>197</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Blazer Low '77 Jumbo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1ba39768-7e69-42ee-afcf-5fc4ebb422ad/calzado-blazer-low-77-jumbo-KwdVDQ.png</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1609</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>198</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Zoom CMFT 2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/74a8961c-db38-4571-b10c-30770c098840/calzado-air-jordan-1-zoom-cmft-2-H7KPRn.png</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2299</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>199</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Low</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b20c67eb-6f93-4143-b36f-3627af6994d5/calzado-air-jordan-1-low-v2kdOZ.png</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>849</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>200</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Low SE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/07f289b9-7ca1-49ec-a347-b69b95e17032/calzado-air-jordan-1-low-se-q7BBTD.png</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1819</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>201</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Fly.By Mid 3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/08f86361-0550-4452-bce0-5d7de3f34cb6/calzado-de-b%C3%A1squetbol-fly-by-mid-3-fjN62M.png</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2599</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>202</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Flex Control 4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e91623bb-e3c9-4452-883d-9d12d5544752/calzado-de-entrenamiento-flex-control-4-8fnn84.png</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>203</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Retro SE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d835ea23-39f6-479a-807f-91d1c950e2b1/calzado-dunk-high-retro-se-G7q3tQ.png</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>204</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/083a3188-0c54-44cd-beb9-6f7cd01b501a/calzado-dunk-low-WVsXkF.png</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>205</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Mid</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/9666574d-f12c-46c8-b04b-fc50b3581e91/calzado-air-jordan-1-mid-2Sd8TJ.png</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>206</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Mid</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7b2e3a8e-06d6-4084-a9c4-fb046bdb1ee5/calzado-dunk-mid-l59tqD.png</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>207</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Air Max Alpha Trainer 5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b4ccaf77-e1c7-4543-a20e-ac4abf0a25d8/calzado-de-entrenamiento-air-max-alpha-trainer-5-mgZ1Lq.png</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>208</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Low SE Craft</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/e2b04ea8-84fb-432f-bec6-e4a420e098e3/calzado-air-jordan-1-low-se-craft-mT5vr2.png</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>209</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Mid SE Craft</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/1aaf4592-f6b3-47f8-8d0d-2a58ca7e2073/calzado-air-jordan-1-mid-se-craft-sB5sZq.png</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2399</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>210</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Mid SE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/c9cdf84a-47bf-4db6-b97b-52542b49eeba/calzado-air-jordan-1-mid-se-S40J4b.png</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>211</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Interact Run</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/256cd285-db79-4c1e-b9a3-211d193fee87/calzado-de-running-en-carretera-interact-run-Bz4HgS.png</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>212</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Air Force 1 Mid '07</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/dd38d4b0-4acd-465b-8eff-7c5d168db71a/calzado-air-force-1-mid-07-pj5Mqp.png</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3199</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>213</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jordan Stay Loyal 2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/8ba3216b-1961-453e-9407-685cd6b3360d/calzado-jordan-stay-loyal-2-LmJ6Fh.png</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2699</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>214</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Jordan Series ES</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b8165104-b53d-4876-9154-f126165174f8/calzado-jordan-series-es-kSNd8k.png</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1249</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>215</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Low OG "White/Red"</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/feb1679d-8e8c-47ac-bd4d-862d9706823a/calzado-air-jordan-1-low-og-white-red.png</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>216</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Pegasus 40 "Eliud Kipchoge"</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/84cdecfe-c952-432b-9e01-b22126cfe197/calzado-de-running-en-carretera-pegasus-40-eliud-kipchoge-zT4Swk.png</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>217</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Metcon 8 AMP</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0020c5e8-d136-4206-94cf-ceffea085f7b/calzado-de-entrenamiento-metcon-8-amp-Xwjw0D.png</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3399</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>218</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Air Jordan Legacy 312 Low</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/xumpf96hthdwq5b5siyl/calzado-air-jordan-legacy-312-low-mpV0mH.png</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3399</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>219</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Phantom GX Academy</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a1a800b4-0962-44ac-846e-356ad1728a97/calzado-de-f%C3%BAtbol-para-pasto-academy-gx-phantom-xmpq7r.png</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>220</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Vomero 17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/daece59b-6f4b-4f83-8a19-8bd9394ce737/calzado-de-running-en-carretera-vomero-17-R7R0Rc.png</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>221</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Renew Ride 3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c547d70f-4867-4260-9d44-4efce7c65952/calzado-de-running-en-carretera-renew-ride-3-6RP4QJ.png</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>222</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NikeCourt Air Zoom NXT</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/51df04d7-857f-4f49-8677-35813e393cb6/calzado-de-tenis-para-cancha-dura-court-air-zoom-nxt-gMpX5F.png</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3199</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>223</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Air Jordan 2 Retro</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/41b6b494-684f-4514-ba23-bf72f326bb7a/calzado-air-jordan-2-retro.png</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2029</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>224</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Free RN NN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/388d1fa1-5921-4181-9bf2-f37defd99521/calzado-de-running-en-carretera-free-rn-nn-dDxDvC.png</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>225</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Pegasus Turbo Next Nature SE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/70511b6a-3e8f-48bc-9753-1d70f5ed7ed5/calzado-de-running-en-carretera-pegasus-turbo-next-nature-se-BwmzQC.png</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>226</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Luka 1 "Next Nature"</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/fe704568-9ee4-4817-aee4-67e850b61787/calzado-de-b%C3%A1squetbol-luka-1-next-nature-WPFZ1B.png</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>228</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Victori One</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/35522a68-54d2-489c-92a1-4c413aacc489/chanclas-estampadas-victori-one-JvgmQ1.png</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>229</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Blazer Low '77</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ec2539ca-f2a1-47b3-a5a0-18206cd4023e/calzado-blazer-low-77-ZPjgLT.png</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>230</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike SB Chron 2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c01cddda-ce71-44bd-bbf7-da5fd4a56c9a/calzado-de-skateboarding-sb-chron-2-zr8R7R.png</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>231</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Go FlyEase</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ce94da52-442d-4a7d-8513-362c11f292e7/calzado-f%C3%A1cil-de-poner-y-quitar-go-flyease-4bM44t.png</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>232</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike SB Zoom Blazer Mid Premium</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ceb500b3-6b43-4e92-b4c7-b00d44be70c4/calzado-de-skateboarding-sb-zoom-blazer-mid-premium-dXVJLK.png</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2404</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>233</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Mercurial Vapor 15 Academy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/469c03b3-4e3a-4c97-912c-d2e702c877f6/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-mercurial-vapor-15-academy-SV81D9.png</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3699</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>234</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nike Air Max 97</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0869a27a-c36b-497e-9c16-c50db2d1e1a3/calzado-air-max-97-z3TlrlVN.png</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1319</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>235</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nike P-6000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/87109660-6b0e-441b-b93a-c6a8c6988bc9/calzado-p-6000-jLFw1h.png</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>236</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nike Air Trainer 1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/96a139be-2faa-463b-b3ce-04547c58b0cd/calzado-air-trainer-1-jCsfFV.png</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3149</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>237</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nike Air Max Pulse</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/545dadee-8355-4cc0-9def-db15578c24b9/calzado-air-max-pulse-DlntVL.png</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3499</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>238</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nike Air Max Plus OG</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/419ed49d-11b4-4c32-8b48-db5e7be4b14a/calzado-air-max-plus-og-s4fdMQ.png</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1234</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>239</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nike E-Series AD</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8310de16-ee94-4e2c-8efe-23288043ac8d/calzado-e-series-ad-7G1P6s.png</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2159</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>240</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nike Mercurial Superfly 9 Academy</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/63e14a37-3fa9-459c-870d-1fa035995156/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-mercurial-superfly-9-academy-Hgm081.png</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>241</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nike Air Zoom Victory Tour 3 NRG</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/00993df9-a529-4e82-80b7-0f22ac2f9e7e/calzado-de-golf-air-zoom-victory-tour-3-nrg-B6K6mg.png</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4599</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>242</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Roshe G Next Nature</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f0aaee9d-93ef-4d9d-b9d0-4a5d11660e95/calzado-de-golf-roshe-g-next-nature-4L3GqC.png</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1439</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>243</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nike SB Zoom Pogo Plus</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e9125b1b-41b3-404a-ade0-5f0d9c61be76/calzado-de-skateboarding-sb-zoom-pogo-plus-dR4T1x.png</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2399</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>244</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nike Impact 4</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b7bd58fb-41c8-4a17-845d-dc5b1d0539e8/calzado-de-b%C3%A1squetbol-impact-4-5gf3h2.png</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>245</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nike Air Max TW</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/871b7d6d-a39a-449e-add8-60a0c3bf34e8/calzado-air-max-tw-bfGWNc.png</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3749</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>246</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nike BRSB</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/43f02169-9f24-45c7-a7d2-eaad5e0f3eed/calzado-de-skateboarding-brsb-1K43C1.png</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>247</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nike Air Max 95</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/208ac031-f5de-44ed-9843-f96290d8a9fe/calzado-air-max-95-P5LZn9.png</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>999</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>248</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nike Phantom GT2 Academy FlyEase</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7c25bae4-e37d-4aaf-8ef4-4112c13dc771/calzado-de-f%C3%BAtbol-para-terrenos-m%C3%BAltiples-f%C3%A1ciles-de-poner-y-quitar-phantom-gt2-academy-flyease-Jj17G9.png</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1199</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>249</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nike Air Max Solo</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3118f22d-7b4e-4125-8464-aa82d1f862ed/calzado-air-max-solo-XlRpk3.png</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2399</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>250</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nike Pegasus 40</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a2cc0e62-3045-4e97-8d7b-2cbe5ec9dcd9/calzado-de-running-en-carretera-pegasus-40-HTDVsQ.png</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>251</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Nike Oneonta Next Nature</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0d34407f-1323-4121-992d-14ed80519ddc/sandalias-oneonta-next-nature-j0xVhX.png</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>252</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Nike Air Max 1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/eee08a1e-38b4-459e-ab34-9b2342d7692c/calzado-air-max-1-bnffzw.png</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>253</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nike Metcon 9</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/46e537d4-38f1-4ab6-86e3-9316a7450d43/calzado-de-entrenamiento-metcon-9-ndTxtM.png</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1399</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>254</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nike Winflo 10</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d5b5d7a1-8d6f-41c3-8281-d9f1764666fd/calzado-de-running-en-carretera-winflo-10-4147B1.png</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>255</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Nike ACG Mountain Fly 2 Low</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3462a093-266c-43f5-b98e-3560c9b0788e/calzado-acg-mountain-fly-2-low-wdZz8G.png</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>256</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nike Downshifter 12</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/db98a67a-a711-43db-b247-2c4c4093dbe9/calzado-de-running-en-carretera-downshifter-12-srMC9V.png</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>257</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nike Pegasus FlyEase</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/30529eb7-dadb-4ccc-9664-5be6c9a4a0a5/calzado-de-running-para-carretera-f%C3%A1cil-de-poner-y-quitar-pegasus-flyease-8Thd96.png</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>4499</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>258</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nike Lunargato II</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3c127c2-2808-4482-91fa-2de3093814df/calzado-de-f%C3%BAtbol-para-cancha-cubierta-lunargato-2-T7pv1J.png</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>259</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Nike City Rep TR</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6abba377-c4b2-4b54-be8e-6578430dbfb5/calzado-de-entrenamiento-city-rep-tr-jsBbQm.png</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>260</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro Premium</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3a727ff4-9bb2-471c-8ee0-80e0e8148f77/calzado-dunk-low-retro-premium-4S8Pr6.png</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>261</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Jumpman MVP</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/ba08723a-a8e4-496e-b0f5-66436807076e/calzado-jumpman-mvp-wm0F96.png</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3999</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>262</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nike Air Force 1 '07 LV8</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b50c5efb-6942-4be0-872e-1433bb92de8a/calzado-air-force-1-07-lv8-NFvR6v.png</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2049</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>263</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Nike Air Force 1 GTX</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1bb96f3b-ea2b-422c-ab0d-49f06c3c54ef/calzado-air-force-1-gtx-GpZp3J.png</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>264</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Nike Full Force Low</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d1acc841-5bd4-4a06-811a-95711e9c7a73/calzado-full-force-low-X3fMDJ.png</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3999</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>265</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Nike Air Force 1 '07 EasyOn</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f8dfa191-60b3-44c1-b730-b25e0a908c35/calzado-air-force-1-07-easyon-rLFV2F.png</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>899</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>266</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Nike Air Max Bolt</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d9d0e89b-884b-43fe-b1ab-e2b7e49a6553/calzado-air-max-bolt-6X41B1.png</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>267</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Nike Manoa Leather</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/rorabfpoffxpmekxfaq7/botas-manoa-leather-xLgRqK.png</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1249</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>268</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Nike Air Flight Lite Mid</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b4f34969-b968-47ac-aca8-d0b780ad8b2f/calzado-air-flight-lite-mid-q4LT7T.png</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>269</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain Jumpman MVP</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/ce38e3d4-7382-4d01-8984-3c5667f7e465/calzado-paris-saint-germain-jumpman-mvp-SrRfB5.png</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>5099</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>270</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Nike Air More Uptempo '96</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b04ce0c8-637e-451c-b946-ef13422e3c6a/calzado-air-more-uptempo-96-bvgl1S.png</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>330</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LeBron NXXT Gen</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4a67e081-afef-446d-a514-15771a6be117/calzado-de-b%C3%A1squetbol-lebron-nxxt-gen-VShP8m.png</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1189</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>271</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Jordan Stay Loyal 3</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/1de98734-b035-44d0-9cd8-957a4cf08e4b/calzado-jordan-stay-loyal-3-MrJJXG.png</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>272</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Air Jordan 1 Low G</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/d01cb6e6-5d25-46e6-8851-2bf514d9066c/calzado-de-golf-air-jordan-1-low-g-knwwrG.png</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1074</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>273</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Luka 2 "Bred"</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/da609d2f-33ba-486f-b192-5044307f9342/calzado-de-b%C3%A1squetbol-luka-2-bred-W1GZ1g.png</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2149</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>274</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Nike Defy All Day</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2f9b21da-6e5f-43ec-bab3-6cb8c86cf85d/calzado-de-entrenamiento-defy-all-day-JL753w.png</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1149</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>275</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>NOCTA Glide</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5b6354ef-00e0-4333-94d5-0d2b538c4bfd/calzado-nocta-glide.png</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2299</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>276</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Nike Alphafly 2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/bb8f3b69-8a65-4d52-8a60-fec0bd0c7227/calzado-de-carrera-en-carretera-alphafly-2-jmPrD5.png</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>3999</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>277</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Nike Air Max 1 '86 OG G</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/279b54ed-f1a0-45d8-8a89-142536ce5044/calzado-de-golf-air-max-1-86-og-g-2mnBvl.png</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>278</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Nike SB Zoom Blazer Mid</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/fambaubeufwpravdy1xs/calzado-de-skateboarding-sb-zoom-blazer-mid-WyTAj8OA.png</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>279</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Nike Motiva SE</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2f019d89-a17e-4598-a92f-7d9a4e0f4a2e/calzado-de-caminata-premium-motiva-se-v3SRZL.png</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>4499</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>280</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Nike Zegama</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6d2f792b-b4f5-47b7-8f05-8358c8704679/calzado-de-trail-running-zegama-RDrrBB.png</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1949</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>281</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>JA 1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/493d0693-7df1-4c89-8708-bb1542203818/calzado-de-b%C3%A1squetbol-ja-1-LBlTVt.png</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>3899</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>282</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>NikeCourt Vapor Lite 2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6bfbc9e7-a839-41f0-a7b0-fd2a01f9618e/calzado-de-tenis-de-cancha-dura-court-vapor-lite-2-4lVK6S.png</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>283</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Nike Pegasus Turbo</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a49b416b-a8f8-4815-a90c-95b72444203a/calzado-de-running-en-carretera-pegasus-turbo-ZFXf4W.png</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>284</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Nike Mercurial Superfly 9 Club</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/86dbc893-2e66-4c2a-8797-5597ac8ed113/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-mercurial-superfly-9-club-B7c908.png</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1249</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>285</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Nike Tiempo Legend 10 Academy</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/aa55fc00-1ee0-401e-856a-e7ad24a4944f/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-tiempo-legend-10-academy-Pz0x3b.png</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>286</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Nike Phantom Luna</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b482ea4c-41cc-411a-b042-a86fe9aaf38e/calzado-de-f%C3%BAtbol-para-terreno-firme-phantom-luna-stRh5r.png</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>899</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>287</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Nike Rival Distance</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/55d33734-124a-4d3a-b438-9fefc4a43046/calzado-de-atletismo-con-clavos-rival-distance-sr2ZP2.png</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>288</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Nike ACG Air Zoom Gaiadome GORE-TEX</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7f4e6501-c0c8-4c1a-b06e-3c44fdc7a28b/calzado-acg-air-zoom-gaiadome-gore-tex-zT8TtL.png</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>289</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Nike Revolution 7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8d7e9e0b-7100-4a95-82ae-130c4076df64/calzado-de-running-en-carretera-revolution-7-Msm1F4.png</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>849</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>290</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Nike Air Max 270</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/s6dp2gck3oukxj9csz5y/calzado-air-max-270-nnTrqDGR.png</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>291</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Nike Zoom Mercurial Vapor 15 Academy Kylian Mbappé MG</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/406d78e2-49bb-42ab-a4b3-53d442c3596f/calzado-de-f%C3%BAtbol-para-terrenos-m%C3%BAltiples-zoom-mercurial-vapor-15-academy-kylian-mbapp%C3%A9-mg-pLSWrx.png</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>3499</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>292</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>LeBron XX x Mimi Plange "Ceremony"</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b2fb761d-5008-49c0-9ca8-edc30ec325a9/calzado-de-b%C3%A1squetbol-lebron-20-10-mimi-plange-ceremony-DH9bmg.png</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>293</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Nike Superfly 9 Academy Mercurial Dream Speed</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7ad07c10-5956-442d-83b7-a760cde85520/calzado-de-f%C3%BAtbol-de-corte-alto-superfly-9-academy-mercurial-dream-speed-mg-39fWKG.png</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1249</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>294</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nike Air Alpha Force 88</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2578dfa3-49a2-472a-accb-a710b5346ab5/calzado-air-alpha-force-88-4xk6lX.png</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>295</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Nike x MMW 005</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8e9e0c73-68d0-4215-9b9c-129475422ea3/chanclas-10-mmw-005-bRQRQP.png</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>999</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>296</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Jordan ADG 4 x Eastside Golf</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/86ed8b8b-e90a-488b-ad42-0480d59093e6/calzado-de-golf-jordan-adg-4-10-eastside-golf-3GWjQh.png</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1849</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>297</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Air Jordan 7 Retro</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/59dd6e46-4b73-460e-b4b1-c9cba51099c3/calzado-air-jordan-7-retro-BZq2sC.png</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3699</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>298</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Nike Air Max Excee</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f701be0e-cc3f-4c11-99cf-47f87aeaa024/calzado-air-max-excee-GfgrpW.png</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>949</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>299</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Nike Mercurial Vapor 15 Club</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/df5bd62d-3e10-44dc-8e9c-fb6a25c958f6/calzado-de-f%C3%BAtbol-para-terrenos-m%C3%BAltiples-mercurial-vapor-15-club-FpcB3d.png</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1899</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>300</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Nike In-Season TR 13</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d11acbbf-0389-4569-b03b-dce793e951b2/calzado-de-entrenamiento-in-season-tr-13-tGhj5T.png</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>301</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Jordan Max Aura 5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/d50af8d1-abfd-4aa7-a275-43dfd0ca1e4f/calzado-jordan-max-aura-5-8FDN1t.png</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>302</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Nike Air Max SYSTM</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/59877a71-85ee-482b-a804-155de1a26f3f/calzado-air-max-systm-kKHC4J.png</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1154</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>303</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Nike G.T. Hustle 2</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/36c1c7df-1e95-4c72-b575-247b6999b430/gt-calzado-de-b%C3%A1squetbol-hustle-2-TCHHlF.png</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>304</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Luka 2 "Lake Bled"</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/72bd0f40-ede1-44ad-b7fc-98fc55bb506c/calzado-de-b%C3%A1squetbol-luka-2-lake-bled-Zn8K0N.png</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2079</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>305</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Nike Air Force 1 Low Retro</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5751238d-b641-4b19-ac1f-10a679e4c502/calzado-air-force-1-low-retro-ZTPQZh.png</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2599</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>306</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Nike Air Flight Huarache</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7b12dffc-1c76-4076-9b6f-187d8c530951/calzado-air-flight-huarache-G5jRsg.png</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2159</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>307</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NikeCourt Air Zoom Lite 3</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/dbe9fe76-7157-47bc-9cb7-1158d2019f4b/calzado-de-tenis-court-air-zoom-lite-3-VsWz6m.png</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2699</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>308</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Nike Air VaporMax 2023 Flyknit</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c44dc5a9-e033-44df-80c6-9af45f3e6972/calzado-air-vapormax-2023-flyknit-fnRM4R.png</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2599</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>309</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Jordan ADG 4</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/33348623-56c1-4ddf-8375-50307e6459da/calzado-de-golf-jordan-adg-4-053rHM.png</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>3484</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>310</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Sabrina 1 "Spark"</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/40d5a277-2ea8-4df8-9c54-fe3ae3dcf803/calzado-de-b%C3%A1squetbol-sabrina-1-spark-VV4xLp.png</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>311</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>NikeCourt Zoom Vapor Cage 4 Rafa</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/987af496-f9b2-478c-b032-b54d9a603645/calzado-de-tenis-de-cancha-dura-court-zoom-vapor-cage-4-rafa-1t7FzV.png</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1619</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>312</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>KD Trey 5 X</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/40b9c5f6-917e-4bb9-8abe-95fafaf8f78d/calzado-de-b%C3%A1squetbol-kd-trey-5-10-4lz95M.png</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2699</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>313</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Nike Pegasus Trail 4 GORE-TEX</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/20624bb9-9514-4e8f-97f9-d8885520a910/calzado-de-trail-running-impermeable-pegasus-trail-4-gore-tex-DmGWgX.png</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3999</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>314</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Nike Rival Sprint</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/63d8290e-ee0f-4dab-bc6f-92bc2d1673f0/calzado-de-atletismo-con-clavos-para-carreras-r%C3%A1pidas-rival-sprint-PcD4dR.png</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>315</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>NOCTA x Nike Hot Step Air Terra</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/78a80376-3736-40b5-b487-422e0d93ff61/calzado-nocta-10-hot-step-air-terra-tzklx6.png</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2299</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>316</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Nike Mercurial Superfly 9 Elite</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a522e8ad-d96e-4b50-9d39-4ce2ea6c3e27/calzado-de-f%C3%BAtbol-para-terreno-firme-mercurial-superfly-9-elite-j49dKx.png</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>2599</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>317</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Luka 2 "The Pitch"</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/4077877f-945c-4de4-b439-7ae3cb1f8747/calzado-de-b%C3%A1squetbol-luka-2-the-pitch-40lLWm.png</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>318</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nike Air Max SC</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c5f46fbd-3c56-49ee-8c30-aa2f5ddea37d/calzado-air-max-sc-2SwX5s.png</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>319</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Nike Infinity Ace Next Nature</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/472370a0-72ab-4e3a-a3e2-b8f9d98c4384/calzado-de-golf-infinity-ace-next-nature-n2g9wx.png</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>320</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>NikeCourt Air Zoom Vapor 9.5 Tour Leather</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d706928a-8bab-4415-aa95-fe77a9ba14fe/calzado-de-tenis-court-air-zoom-vapor-9-5-tour-leather-8MSqr8.png</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1919</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>321</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Nike Phantom GX Club</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b033781c-053e-41b8-90c8-b678fa24171f/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-phantom-gx-club-0KvsRR.png</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3199</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>322</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nike Tanjun</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0e53b6ab-63bc-4fe9-b0d8-82dffa24638d/calzado-tanjun-cFVjcP.png</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2399</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>323</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Nike Rival Waffle 6</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/47963c50-1fa1-4f43-af8c-83e36a5978d7/calzado-de-atletismo-para-media-distancia-zoom-rival-waffle-6-RlLdt3.png</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>324</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nike Free Metcon 5</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3b59bde-b5ea-4b89-8d57-cefbc326010e/calzado-de-entrenamiento-free-metcon-5-0nJCzq.png</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>3689</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>325</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Air Jordan I High G x Eastside Golf</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/4c3f250c-6e27-4a79-93c5-4b57710c4431/calzado-de-golf-air-jordan-1-high-g-10-eastside-golf-T3DPhw.png</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4099</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>326</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Nike Alphafly</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e1a47258-2d88-43ec-af27-6929c10bb702/calzado-de-carrera-en-carretera-alphafly-mGK8M0.png</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>327</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Jordan Series Mid</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/e57204bc-21ce-4423-8136-0dbe833e3074/calzado-jordan-series-mid-MV9QRP.png</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>328</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>LeBron Witness 8</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ea31e617-85eb-485a-bc0d-f81714577b13/calzado-de-b%C3%A1squetbol-lebron-witness-8-Hc4PFF.png</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>329</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Nike SB Zoom Blazer Low Pro GT</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/bd88299d-4b26-4427-86a8-549bee1431f6/calzado-de-skateboarding-sb-zoom-blazer-low-pro-gt-bMwZmc.png</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>3249</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>331</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Nike SB Dunk Low Pro Premium</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f8f49bd3-68df-47c4-b873-df9cbc6e7da2/calzado-de-skateboarding-sb-dunk-low-pro-premium-K9RX8N.png</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>332</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Nike Streakfly</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/84c1e0d5-ac53-4d7b-8991-f5d9a9cb3465/calzado-de-carrera-en-carretera-streakfly-wWhMKs.png</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>333</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Nike Offcourt</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/841c0c34-f108-454a-9d2b-045aedbc35ee/chancla-offcourt-VxPVCN.png</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>2279</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>334</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Nike Mercurial Superfly 9 Pro</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7d909b37-b82b-47ca-b1db-a149cf3a9529/calzado-de-f%C3%BAtbol-para-terreno-firme-mercurial-superfly-9-pro-h4DV4s.png</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>3799</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>335</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Nike Lunar Force 1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/89a91ebd-3e3d-4550-b10d-561f6ebba30a/duckboot-lunar-force-1-HrBZjs.png</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>3399</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>336</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Jordan Hydro XI</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/8ff83e45-be98-4dba-85f4-e7ef398cd533/chanclas-jordan-hydro-11-bv9Q2z.png</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2279</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>337</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Nike Air Max 1 Premium</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4c6e5e0e-9b41-45e8-857d-f20ea5a078b6/calzado-air-max-1-premium.png</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>3799</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>338</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Nike Cortez</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3734282-d3ff-4df6-96bd-bbe1227ef63c/calzado-cortez-VjtFR0.png</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>339</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Nike Air Huarache Runner</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6fa90dff-89e1-410a-b9bb-8a26565b9e55/calzado-air-huarache-runner-0ctMF4.png</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>340</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Nike Air Max AP</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/9c44e98d-3ea9-443b-806c-51d1e2fa3e76/calzado-air-max-ap-bsbHvP.png</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>2699</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>341</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Nike Air Max Cirro</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/30ba2726-7e1f-4a84-a3ef-1d6f5df9886a/chanclas-air-max-cirro-xTRJxv.png</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>342</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Ja 1 "Fly"</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e7490924-4177-4f9c-8002-dece72adc898/calzado-de-b%C3%A1squetbol-ja-1-fly-RwJZZ9.png</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>3999</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>343</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Air Jordan 2 Retro Low</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/0c61c610-55fe-4183-b0a9-bc917ded34fd/calzado-air-jordan-2-retro-low-SbtMfn.png</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>344</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Nike Zoom Mamba 6</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3c0307eb-5222-4d8e-b6a6-b4d93d75d17a/calzado-de-atletismo-con-clavos-zoom-mamba-6-gthbp3.png</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>345</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Jordan One Take 4</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/9f309b7d-9923-4ecf-a5c4-357efbe7e311/calzado-jordan-one-take-4-txkWrJ.png</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>346</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Nike Legend Essential 3 Next Nature</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7b743007-5e24-4db0-b4dd-8a2fde27fa11/calzado-de-entrenamiento-legend-essential-3-next-nature-9jT6tl.png</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>3749</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>347</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Freak 5</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e981949a-5c38-4b5b-9ab2-c23f66bd7c7b/calzado-de-b%C3%A1squetbol-freak-5-9cDXCm.png</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1259</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>348</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Nike Mercurial Vapor 15 Pro</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/86c5adf7-357e-46c5-9389-aa634fd55aac/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-mercurial-vapor-15-pro-MPC5Vm.png</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>349</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Nike Calm</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e1f8a4a9-7a98-4fdd-8e56-5e52c801a45c/calzado-tipo-mule-calm-HFNG0z.png</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>350</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Nike ACG Lowcate</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/029ae55d-7f63-425e-864d-ce4df33960ab/calzado-acg-lowcate-R9gzz9.png</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>351</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LeBron 20</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5e546de6-53ca-4a0e-9cfc-78991cd3cb46/calzado-de-b%C3%A1squetbol-lebron-20-756ZMJ.png</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>2699</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>352</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Nike Phantom GX Pro</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d2db83dd-d540-451e-92b0-4e42258c1434/calzado-de-f%C3%BAtbol-para-terreno-firme-phantom-gx-pro-sQqrxM.png</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>353</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Jordan Post</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b0cbf8fb-5526-4f55-a9dc-5d399514e404/chancla-jordan-post-zRK4FR.png</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>354</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Nike Air Dunk Low Jumbo</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1814b6e2-2ef8-4c19-a317-05d742848885/calzado-air-dunk-low-jumbo-LJbsr4.png</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>355</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Nike SuperRep Go 3 Next Nature Flyknit</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/91688d0a-77af-4fef-8e18-52932ada8e0b/calzado-de-entrenamiento-superrep-go-3-next-nature-flyknit-clwc8v.png</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>3799</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>356</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Nike Air Max Plus</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2ca2b884-2f23-4caa-95ac-0103539e00ea/calzado-air-max-plus-vGsr6j.png</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>3999</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>357</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>NikeCourt Zoom Pro</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e0e20d55-5240-44ec-b0c6-c978ebda59ac/calzado-de-tenis-para-cancha-dura-court-zoom-pro-lp6cGP.png</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1609</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>358</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Nike Rival Multi</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4144a9f6-9031-4c52-9f0e-9d6dda42b5b4/calzado-de-clavos-para-eventos-m%C3%BAltiples-de-pista-y-campo-zoom-rival-multi-JnzZpK.png</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>4339</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>359</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Nike Victory Pro 3</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/9a6d9e62-dde1-45d9-a741-52c3535ca180/calzado-de-golf-victory-pro-3-226Vn7.png</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>3299</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>360</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Nike Vaporfly 3</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f3276ae3-ab93-4ad3-abb8-b12f76e41401/calzado-de-carrera-en-carretera-vaporfly-3-XZZSbK.png</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>2599</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Descripcion del tenis</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>227</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Nike Rival Fly 3</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3cdb87e5-eb54-4742-9d8e-3fd22704a594/calzado-de-carrera-en-carretera-rival-fly-3-sTqqkg.png</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>3199</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Cuando estés listo para aumentar la velocidad y recorrer la distancia, impúlsate con un modelo diseñado para entrenar y correr. Nuestra versión más reciente incluye amortiguación de espuma que es más suave que nunca y la goma resistente a la abrasión brinda mayor durabilidad en los caminos rocosos. Con actualizaciones como estas, podrás concentrarte mientras avanzas hacia la línea de meta.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +49,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,41 +419,49 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="100" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Product ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Product Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Product Image</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Product Price</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Product Description</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Product Gender</t>
         </is>
@@ -455,24 +469,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nike Dunk LowRetro</t>
+          <t>Air Jordan 1 Low SE Craft</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3e7dead-1ad2-4c40-996d-93ebc9df0fca/calzado-dunk-low-retro.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/e2b04ea8-84fb-432f-bec6-e4a420e098e3/calzado-air-jordan-1-low-se-craft-mT5vr2.png</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2300</v>
+        <v>3899</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>El Nike Dunk Low Retro, creado para la cancha pero que luego dominó las calles, regresa con revestimientos modernos y los colores originales del equipo. Este ícono del básquetbol rinde homenaje al estilo de los 80 con cuero premium en la parte superior que se ve bien y se siente aún mejor. La tecnología moderna del calzado aporta la comodidad del siglo XXI.</t>
+          <t>Descripcion del tenis</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -483,16 +497,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jumpman Two Trey</t>
+          <t>Nike Dunk LowRetro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/57bc5ca1-76a7-4da7-a1e8-dae139ec10a7/calzado-jumpman-two-trey-rg6GNh.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3e7dead-1ad2-4c40-996d-93ebc9df0fca/calzado-dunk-low-retro.png</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -500,7 +514,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Como "Two Trey" en la matrícula de MJ, hazte notar. Esta nueva generación de Jordan celebra el tiempo de Mike en Chicago, completado con una parte superior de cuero de alta calidad y suelas Air amortiguadas. Hecho como homenaje a los estilos que se usan en la cancha durante sus años de campeonato, el diseño de la entresuela del Two Trey hace referencia tanto al AJ11 como al AJ12.</t>
+          <t>El Nike Dunk Low Retro, creado para la cancha pero que luego dominó las calles, regresa con revestimientos modernos y los colores originales del equipo. Este ícono del básquetbol rinde homenaje al estilo de los 80 con cuero premium en la parte superior que se ve bien y se siente aún mejor. La tecnología moderna del calzado aporta la comodidad del siglo XXI.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -511,24 +525,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nike Court Legacy</t>
+          <t>Jumpman Two Trey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/aaac8e7b-b62e-4023-9844-7ac4a0577f0a/calzado-court-legacy-Jm9qQX.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/57bc5ca1-76a7-4da7-a1e8-dae139ec10a7/calzado-jumpman-two-trey-rg6GNh.png</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1529</v>
+        <v>2300</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Honrando una historia arraigada en la cultura del tenis, el Court Legacy te trae un básico probado por el tiempo con un estilo impecable. Su cuero sintético texturizado en la parte superior, la tracción duradera y colores clásicos le dan un estilo ganador de partidos.</t>
+          <t>Como "Two Trey" en la matrícula de MJ, hazte notar. Esta nueva generación de Jordan celebra el tiempo de Mike en Chicago, completado con una parte superior de cuero de alta calidad y suelas Air amortiguadas. Hecho como homenaje a los estilos que se usan en la cancha durante sus años de campeonato, el diseño de la entresuela del Two Trey hace referencia tanto al AJ11 como al AJ12.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -539,20 +553,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 '07</t>
+          <t>Nike Air Max 1 Premium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e6da41fa-1be4-4ce5-b89c-22be4f1f02d4/calzado-air-force-1-07-rWtqPn.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4c6e5e0e-9b41-45e8-857d-f20ea5a078b6/calzado-air-max-1-premium.png</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1699</v>
+        <v>3799</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -567,20 +581,20 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nike Court Legacy Next Nature</t>
+          <t>Nike Air Max AP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/30f8062f-0f8e-4fb5-9d32-1da71f6dd8e8/calzado-court-legacy-next-nature-mr6MZ1.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/9c44e98d-3ea9-443b-806c-51d1e2fa3e76/calzado-air-max-ap-bsbHvP.png</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2599</v>
+        <v>3199</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -595,20 +609,20 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nike Killshot 2 Leather</t>
+          <t>Air Jordan 1 Low</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/dlyapben5bidcjm1vmfh/calzado-killshot-2-leather-Xp4rM5.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b20c67eb-6f93-4143-b36f-3627af6994d5/calzado-air-jordan-1-low-v2kdOZ.png</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1699</v>
+        <v>2899</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -623,20 +637,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nike Blazer Mid Pro Club</t>
+          <t>Air Jordan 1 Mid</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8e158065-9466-46b0-9f94-32d15c271d0c/calzado-blazer-mid-pro-club-gBxRTL.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/50c57ebb-64bc-4e3e-844f-7e9c35c8a03d/calzado-air-jordan-1-mid-f8W9ns.png</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2199</v>
+        <v>3199</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -651,7 +665,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -664,7 +678,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2799</v>
+        <v>2599</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -679,20 +693,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nike Court Borough Low</t>
+          <t>Nike Dunk High Retro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/xntdzxgy1gmzkl1adtoi/calzado-court-borough-low-1Enw4k.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/fd17b420-b388-4c8a-aaaa-e0a98ddf175f/calzado-dunk-high-retro-1PhQRw.png</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2599</v>
+        <v>2799</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -707,20 +721,20 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 High '07</t>
+          <t>Nike Blazer Mid '77 Vintage</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6a91c26b-7471-459d-91c5-30665fdc144c/calzado-air-force-1-high-07-VqQK8m.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/389b709e-5102-4e55-aa5d-07099b500831/calzado-blazer-mid-77-vintage-CBDjT0.png</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>799</v>
+        <v>2599</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -735,20 +749,20 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nike Dunk High Retro</t>
+          <t>Nike Manoa Leather SE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/fd17b420-b388-4c8a-aaaa-e0a98ddf175f/calzado-dunk-high-retro-1PhQRw.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4f5890f1-7d2d-4ddd-8f65-344f31559376/botas-manoa-leather-se-ZdhRxB.png</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1599</v>
+        <v>2699</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -763,20 +777,20 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nike Blazer Low '77 Vintage</t>
+          <t>Nike Air Max Goadome</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f87ff87c-99df-441d-80d5-ed5866d8d4a7/calzado-blazer-low-77-vintage-zvx59l.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7900daef-7714-44ef-8564-eab4588c08c3/botas-air-max-goadome-mrjrMv.png</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2319</v>
+        <v>4499</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -791,20 +805,20 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nike Court Borough Low Premium</t>
+          <t>Nike Revolution 7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8b2c6ecf-7e88-4427-8a59-c9ee1d097e93/calzado-court-borough-low-premium-NVLMDS.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8d7e9e0b-7100-4a95-82ae-130c4076df64/calzado-de-running-en-carretera-revolution-7-Msm1F4.png</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2899</v>
+        <v>1799</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -819,20 +833,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nike Blazer Mid '77 Vintage</t>
+          <t>Nike Zoom Fly 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4fd2bc0a-f4bc-49cf-b0a3-63ea10cfb895/calzado-blazer-mid-77-vintage-CBDjT0.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4bf12fc1-77d1-4d54-99f0-661a7947dc28/calzado-de-running-en-carretera-zoom-fly-5-hTNv2r.png</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2799</v>
+        <v>3999</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -847,20 +861,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nike Blazer Low '77 Jumbo</t>
+          <t>Nike Invincible 3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1ba39768-7e69-42ee-afcf-5fc4ebb422ad/calzado-blazer-low-77-jumbo-KwdVDQ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e9f8c612-0b6b-4e4e-aaf8-af0d8b88b40c/calzado-de-running-en-carretera-invincible-3-LbMlVN.png</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1609</v>
+        <v>4199</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -875,20 +889,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Zoom CMFT 2</t>
+          <t>Nike Air Force 1 High '07</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/74a8961c-db38-4571-b10c-30770c098840/calzado-air-jordan-1-zoom-cmft-2-H7KPRn.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/14056877-45c7-4dab-8be6-5341690207b5/calzado-air-force-1-high-07-VqQK8m.png</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2299</v>
+        <v>2899</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -903,20 +917,20 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Low</t>
+          <t>Nike Calm</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b20c67eb-6f93-4143-b36f-3627af6994d5/calzado-air-jordan-1-low-v2kdOZ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e69d0ed0-b9ab-4614-b6af-843806495e8a/calzado-tipo-mule-calm-HFNG0z.png</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>849</v>
+        <v>1699</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -931,20 +945,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Low SE</t>
+          <t>Nike Winflo 10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/07f289b9-7ca1-49ec-a347-b69b95e17032/calzado-air-jordan-1-low-se-q7BBTD.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/87b891f6-1e93-4e82-b34d-dbfb5d836e17/calzado-de-running-en-carretera-winflo-10-4147B1.png</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1819</v>
+        <v>1749</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -959,16 +973,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nike Fly.By Mid 3</t>
+          <t>Nike Dunk Mid</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/08f86361-0550-4452-bce0-5d7de3f34cb6/calzado-de-b%C3%A1squetbol-fly-by-mid-3-fjN62M.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/15d94efe-d207-4ad2-b138-d09332de9965/calzado-dunk-mid-Q4M9zz.png</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -987,20 +1001,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nike Flex Control 4</t>
+          <t>Nike Air Force 1 Mid '07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e91623bb-e3c9-4452-883d-9d12d5544752/calzado-de-entrenamiento-flex-control-4-8fnn84.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/dd38d4b0-4acd-465b-8eff-7c5d168db71a/calzado-air-force-1-mid-07-pj5Mqp.png</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2499</v>
+        <v>2799</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1015,20 +1029,20 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nike Dunk High Retro SE</t>
+          <t>Air Jordan Legacy 312 Low</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d835ea23-39f6-479a-807f-91d1c950e2b1/calzado-dunk-high-retro-se-G7q3tQ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/d220e8bd-40c6-4195-8cf3-23f6b9968ac6/calzado-air-jordan-legacy-312-low-mpV0mH.png</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3599</v>
+        <v>2799</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1043,20 +1057,20 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nike Dunk Low</t>
+          <t>Nike Free Metcon 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/083a3188-0c54-44cd-beb9-6f7cd01b501a/calzado-dunk-low-WVsXkF.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ada459dd-4c60-4a51-8345-db969d6ca91c/calzado-de-entrenamiento-free-metcon-5-0nJCzq.png</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2899</v>
+        <v>3699</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1071,20 +1085,20 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Mid</t>
+          <t>Nike InfinityRN 4 PRM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/9666574d-f12c-46c8-b04b-fc50b3581e91/calzado-air-jordan-1-mid-2Sd8TJ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/da7d7b40-7fad-4cf7-be9f-59840453012c/calzado-de-running-en-carretera-infinityrn-4-prm-zK0rFg.png</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2899</v>
+        <v>1699</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1099,20 +1113,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nike Dunk Mid</t>
+          <t>Nike Rival Fly 3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7b2e3a8e-06d6-4084-a9c4-fb046bdb1ee5/calzado-dunk-mid-l59tqD.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7886431b-a575-4de2-b8ea-95c20ce1a452/calzado-de-carrera-en-carretera-rival-fly-3-sTqqkg.png</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2999</v>
+        <v>3699</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1127,20 +1141,20 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nike Air Max Alpha Trainer 5</t>
+          <t>Ja 1 "Zombie"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b4ccaf77-e1c7-4543-a20e-ac4abf0a25d8/calzado-de-entrenamiento-air-max-alpha-trainer-5-mgZ1Lq.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/fbf7c5fb-a3f0-41db-8c06-d962bf56b18a/calzado-de-b%C3%A1squetbol-ja-1-zombie-vVRZkc.png</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1799</v>
+        <v>2199</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1155,20 +1169,20 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Low SE Craft</t>
+          <t>NikeCourt Zoom Vapor Cage 4 Rafa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/e2b04ea8-84fb-432f-bec6-e4a420e098e3/calzado-air-jordan-1-low-se-craft-mT5vr2.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/987af496-f9b2-478c-b032-b54d9a603645/calzado-de-tenis-de-cancha-dura-court-zoom-vapor-cage-4-rafa-1t7FzV.png</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1799</v>
+        <v>3099</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1183,20 +1197,20 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Mid SE Craft</t>
+          <t>Nike Downshifter 12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/1aaf4592-f6b3-47f8-8d0d-2a58ca7e2073/calzado-air-jordan-1-mid-se-craft-sB5sZq.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/09021e15-c8f9-42af-be9f-a6d91f947518/calzado-de-running-en-carretera-downshifter-12-srMC9V.png</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2399</v>
+        <v>2999</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1211,20 +1225,20 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Mid SE</t>
+          <t>Nike Air Force 1 '07 EasyOn</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/c9cdf84a-47bf-4db6-b97b-52542b49eeba/calzado-air-jordan-1-mid-se-S40J4b.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f8dfa191-60b3-44c1-b730-b25e0a908c35/calzado-air-force-1-07-easyon-rLFV2F.png</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2999</v>
+        <v>2799</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1239,20 +1253,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nike Interact Run</t>
+          <t>Nike Mercurial Superfly 9 Club</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/256cd285-db79-4c1e-b9a3-211d193fee87/calzado-de-running-en-carretera-interact-run-Bz4HgS.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/36b665e1-dedb-4962-956d-8216b767700f/calzado-de-f%C3%BAtbol-high-para-pasto-sint%C3%A9tico-turf-mercurial-superfly-9-club-B7c908.png</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2799</v>
+        <v>2599</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1267,20 +1281,20 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 Mid '07</t>
+          <t>Nike Air Force 1 Mid x Off-White™</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/dd38d4b0-4acd-465b-8eff-7c5d168db71a/calzado-air-force-1-mid-07-pj5Mqp.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/060a9c0b-03b1-4dca-9376-6cbf3d84d880/calzado-air-force-1-mid-10-off-white%E2%84%A2.png</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3199</v>
+        <v>1799</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1295,20 +1309,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jordan Stay Loyal 2</t>
+          <t>NikeCourt Air Zoom Vapor 11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/8ba3216b-1961-453e-9407-685cd6b3360d/calzado-jordan-stay-loyal-2-LmJ6Fh.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/98f67914-40d4-480e-ad56-ab3ef5959a4a/calzado-de-tenis-de-cancha-dura-court-air-zoom-vapor-11-xkm4wk.png</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2699</v>
+        <v>4799</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1323,20 +1337,20 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jordan Series ES</t>
+          <t>Nike Renew Run 4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b8165104-b53d-4876-9154-f126165174f8/calzado-jordan-series-es-kSNd8k.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/21ae143a-91b6-4523-8757-0fb387482393/calzado-de-running-para-carretera-renew-run-4-hR7wtq.png</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1249</v>
+        <v>2599</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1351,20 +1365,20 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Low OG "White/Red"</t>
+          <t>NikeCourt Air Zoom Vapor Pro 2 Premium</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/feb1679d-8e8c-47ac-bd4d-862d9706823a/calzado-air-jordan-1-low-og-white-red.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1ff7f77e-3516-4782-90e0-d74a561d5d34/calzado-de-tenis-para-cancha-dura-court-air-zoom-vapor-pro-2-premium-HnRRZ7.png</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2499</v>
+        <v>3999</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1379,20 +1393,20 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nike Pegasus 40 "Eliud Kipchoge"</t>
+          <t>Nike Dunk Low</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/84cdecfe-c952-432b-9e01-b22126cfe197/calzado-de-running-en-carretera-pegasus-40-eliud-kipchoge-zT4Swk.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/07874320-fba8-4712-8670-34df66141622/calzado-dunk-low-Tdh1bF.png</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2999</v>
+        <v>2199</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1407,20 +1421,20 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nike Metcon 8 AMP</t>
+          <t>Nike Air Max Cirro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0020c5e8-d136-4206-94cf-ceffea085f7b/calzado-de-entrenamiento-metcon-8-amp-Xwjw0D.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/30ba2726-7e1f-4a84-a3ef-1d6f5df9886a/chanclas-air-max-cirro-xTRJxv.png</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3399</v>
+        <v>3299</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1435,20 +1449,20 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Air Jordan Legacy 312 Low</t>
+          <t>Nike Mercurial Superfly 9 Academy</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/xumpf96hthdwq5b5siyl/calzado-air-jordan-legacy-312-low-mpV0mH.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8bb83e56-d335-4cce-958f-30e1cd46bdd7/calzado-de-f%C3%BAtbol-de-perfil-alto-para-terrenos-m%C3%BAltiples-mercurial-superfly-9-academy-RTlCdM.png</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3399</v>
+        <v>1699</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1463,20 +1477,20 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nike Phantom GX Academy</t>
+          <t>Nike Fly.By Mid 3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a1a800b4-0962-44ac-846e-356ad1728a97/calzado-de-f%C3%BAtbol-para-pasto-academy-gx-phantom-xmpq7r.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/08f86361-0550-4452-bce0-5d7de3f34cb6/calzado-de-b%C3%A1squetbol-fly-by-mid-3-fjN62M.png</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1999</v>
+        <v>2599</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1491,20 +1505,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nike Vomero 17</t>
+          <t>Nike Burrow</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/daece59b-6f4b-4f83-8a19-8bd9394ce737/calzado-de-running-en-carretera-vomero-17-R7R0Rc.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b01f3827-2925-4905-ab75-bdb1d480fe08/pantuflas-burrow-6DC2ls.png</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2239</v>
+        <v>1299</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1519,20 +1533,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nike Renew Ride 3</t>
+          <t>Nike Pegasus Turbo SE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c547d70f-4867-4260-9d44-4efce7c65952/calzado-de-running-en-carretera-renew-ride-3-6RP4QJ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d16d9ec3-7206-4a62-ae5d-c3e4d291d7e5/calzado-de-running-en-carretera-pegasus-turbo-se-6G5rRf.png</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2799</v>
+        <v>2499</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1547,20 +1561,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NikeCourt Air Zoom NXT</t>
+          <t>Nike Kiger 9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/51df04d7-857f-4f49-8677-35813e393cb6/calzado-de-tenis-para-cancha-dura-court-air-zoom-nxt-gMpX5F.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5d90148a-072a-4fd0-9f2e-5c44e690e87f/calzado-de-trail-running-kiger-9-NlMSt0.png</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3199</v>
+        <v>1599</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1575,20 +1589,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Air Jordan 2 Retro</t>
+          <t>NikeCourt Air Zoom Lite 3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/41b6b494-684f-4514-ba23-bf72f326bb7a/calzado-air-jordan-2-retro.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0a45e545-c9d0-4c72-8743-52e22fae85ea/calzado-de-tenis-court-air-zoom-lite-3-VsWz6m.png</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2029</v>
+        <v>2624</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1603,20 +1617,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nike Free RN NN</t>
+          <t>Jordan Stadium 90</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/388d1fa1-5921-4181-9bf2-f37defd99521/calzado-de-running-en-carretera-free-rn-nn-dDxDvC.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/fc24e021-97a9-41db-88f2-6941fb13f29e/calzado-jordan-stadium-90-qT0NdR.png</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2899</v>
+        <v>3749</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1631,20 +1645,20 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nike Pegasus Turbo Next Nature SE</t>
+          <t>Tatum 1 "Away Team"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/70511b6a-3e8f-48bc-9753-1d70f5ed7ed5/calzado-de-running-en-carretera-pegasus-turbo-next-nature-se-BwmzQC.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/f034834f-c5c8-4e84-95ce-07a7ecd39518/calzado-de-b%C3%A1squetbol-tatum-1-away-team-kLhVwD.png</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3299</v>
+        <v>2499</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1659,20 +1673,20 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Luka 1 "Next Nature"</t>
+          <t>Nike Victori One Next Nature</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/fe704568-9ee4-4817-aee4-67e850b61787/calzado-de-b%C3%A1squetbol-luka-1-next-nature-WPFZ1B.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3dcfc65-5a28-4769-a5a3-66cf6f0e88e5/chanclas-victori-one-next-nature-hm6vCm.png</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1999</v>
+        <v>2399</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1687,20 +1701,20 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nike Victori One</t>
+          <t>Nike Motiva</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/35522a68-54d2-489c-92a1-4c413aacc489/chanclas-estampadas-victori-one-JvgmQ1.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/01f5e423-1a0e-4795-ac2f-d822ff8f7c51/calzado-de-caminata-motiva-jRNDkM.png</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2099</v>
+        <v>3199</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1715,20 +1729,20 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nike Blazer Low '77</t>
+          <t>Nike Cortez SE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ec2539ca-f2a1-47b3-a5a0-18206cd4023e/calzado-blazer-low-77-ZPjgLT.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3052daa5-8ea2-4e10-80fc-a8a73122f56c/calzado-cortez-se-0TnmCb.png</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2999</v>
+        <v>1899</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1743,20 +1757,20 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nike SB Chron 2</t>
+          <t>Jordan Super Play</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c01cddda-ce71-44bd-bbf7-da5fd4a56c9a/calzado-de-skateboarding-sb-chron-2-zr8R7R.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/f4c30abb-9e9c-453d-ab24-22e028d8f643/chancla-jordan-super-play-J9XJND.png</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1649</v>
+        <v>3599</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1771,20 +1785,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nike Go FlyEase</t>
+          <t>NikeCourt Air Zoom Vapor 11 Attack</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ce94da52-442d-4a7d-8513-362c11f292e7/calzado-f%C3%A1cil-de-poner-y-quitar-go-flyease-4bM44t.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6103766c-e20f-432e-8478-be397f27c0ce/calzado-de-tenis-de-cancha-dura-court-air-zoom-vapor-11-attack-bsbvmV.png</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3299</v>
+        <v>2999</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1799,20 +1813,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nike SB Zoom Blazer Mid Premium</t>
+          <t>Nike Tiempo Legend 10 Academy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ceb500b3-6b43-4e92-b4c7-b00d44be70c4/calzado-de-skateboarding-sb-zoom-blazer-mid-premium-dXVJLK.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/538fa1ef-6635-4d3d-b38c-144b93e3d716/calzado-de-f%C3%BAtbol-low-para-terrenos-m%C3%BAltiples-tiempo-legend-10-academy-0LthLp.png</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2404</v>
+        <v>879</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1827,20 +1841,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nike Mercurial Vapor 15 Academy</t>
+          <t>Nike Air More Uptempo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/469c03b3-4e3a-4c97-912c-d2e702c877f6/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-mercurial-vapor-15-academy-SV81D9.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/36b18a2c-bc36-43bc-8418-4b380e039e2f/chanclas-air-more-uptempo-fx3vvk.png</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3699</v>
+        <v>1099</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1855,20 +1869,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nike Air Max 97</t>
+          <t>Nike Phantom GX Academy</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0869a27a-c36b-497e-9c16-c50db2d1e1a3/calzado-air-max-97-z3TlrlVN.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e079ebe3-2cef-4688-a5c4-f6dbc9538a75/calzado-de-f%C3%BAtbol-de-corte-low-para-terrenos-m%C3%BAltiples-phantom-gx-academy-TTdSzp.png</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1319</v>
+        <v>2294</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1883,20 +1897,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nike P-6000</t>
+          <t>Nike Pegasus Shield</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/87109660-6b0e-441b-b93a-c6a8c6988bc9/calzado-p-6000-jLFw1h.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/50789b51-87a9-4d52-89b8-0f7f788138ac/calzado-de-running-en-carretera-resistente-a-las-inclemencias-del-tiempo-pegasus-shield-Fp3SPv.png</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2199</v>
+        <v>2699</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1911,20 +1925,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Nike Air Trainer 1</t>
+          <t>Nike Vaporfly 3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/96a139be-2faa-463b-b3ce-04547c58b0cd/calzado-air-trainer-1-jCsfFV.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/09f365a5-5753-450f-901d-7fafe8915ca0/calzado-de-carrera-en-carretera-vaporfly-3-XZZSbK.png</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3149</v>
+        <v>2499</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1939,20 +1953,20 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nike Air Max Pulse</t>
+          <t>KD13 "Aunt Pearl"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/545dadee-8355-4cc0-9def-db15578c24b9/calzado-air-max-pulse-DlntVL.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/844af875-ac7e-4506-8008-fcf8ae461be0/calzado-de-b%C3%A1squetbol-kd16-aunt-pearl-10sFBJ.png</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1967,20 +1981,20 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Nike Air Max Plus OG</t>
+          <t>Paris Saint-Germain Jumpman MVP</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/419ed49d-11b4-4c32-8b48-db5e7be4b14a/calzado-air-max-plus-og-s4fdMQ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/ce38e3d4-7382-4d01-8984-3c5667f7e465/calzado-paris-saint-germain-jumpman-mvp-SrRfB5.png</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1234</v>
+        <v>4499</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1995,20 +2009,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nike E-Series AD</t>
+          <t>Nike Superfly 9 Academy Mercurial Dream Speed</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8310de16-ee94-4e2c-8efe-23288043ac8d/calzado-e-series-ad-7G1P6s.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7ad07c10-5956-442d-83b7-a760cde85520/calzado-de-f%C3%BAtbol-de-corte-alto-superfly-9-academy-mercurial-dream-speed-mg-39fWKG.png</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2159</v>
+        <v>1999</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2023,20 +2037,20 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nike Mercurial Superfly 9 Academy</t>
+          <t>Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/63e14a37-3fa9-459c-870d-1fa035995156/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-mercurial-superfly-9-academy-Hgm081.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b50c5efb-6942-4be0-872e-1433bb92de8a/calzado-air-force-1-07-lv8-NFvR6v.png</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3599</v>
+        <v>2299</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2051,20 +2065,20 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Nike Air Zoom Victory Tour 3 NRG</t>
+          <t>Nike Air Max Alpha Trainer 5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/00993df9-a529-4e82-80b7-0f22ac2f9e7e/calzado-de-golf-air-zoom-victory-tour-3-nrg-B6K6mg.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b884426d-4bbf-4244-b772-2d84277aeb29/calzado-de-entrenamiento-air-max-alpha-trainer-5-mgZ1Lq.png</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4599</v>
+        <v>1999</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2079,20 +2093,20 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Roshe G Next Nature</t>
+          <t>Nike Zoom Vomero 5 Premium</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f0aaee9d-93ef-4d9d-b9d0-4a5d11660e95/calzado-de-golf-roshe-g-next-nature-4L3GqC.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/9a5d682b-04f3-405d-8aa0-401e8daedf81/calzado-zoom-vomero-5-premium-HmFPkf.png</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1439</v>
+        <v>3399</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2107,20 +2121,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nike SB Zoom Pogo Plus</t>
+          <t>Jumpman MVP</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e9125b1b-41b3-404a-ade0-5f0d9c61be76/calzado-de-skateboarding-sb-zoom-pogo-plus-dR4T1x.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/50620c32-c95c-4c38-82ef-7b449dcd30f0/calzado-jumpman-mvp-wm0F96.png</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2399</v>
+        <v>5999</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2135,20 +2149,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nike Impact 4</t>
+          <t>Air Jordan 1 Zoom CMFT 2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b7bd58fb-41c8-4a17-845d-dc5b1d0539e8/calzado-de-b%C3%A1squetbol-impact-4-5gf3h2.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/dfa81860-eaa1-4104-985c-0058b1e86761/calzado-air-jordan-1-zoom-cmft-2-H7KPRn.png</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2249</v>
+        <v>3999</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2163,20 +2177,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nike Air Max TW</t>
+          <t>Air Jordan XXXVIII "Celebration"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/871b7d6d-a39a-449e-add8-60a0c3bf34e8/calzado-air-max-tw-bfGWNc.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/3113f423-819b-44a4-97a4-4639c1ebd1ea/calzado-de-b%C3%A1squetbol-air-jordan-38-celebration-c53W8C.png</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3749</v>
+        <v>4099</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2191,20 +2205,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nike BRSB</t>
+          <t>Nike Air Zoom TR 1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/43f02169-9f24-45c7-a7d2-eaad5e0f3eed/calzado-de-skateboarding-brsb-1K43C1.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/841b1fe9-e705-42d8-9175-56c71b8a7c4a/calzado-de-entrenamiento-air-zoom-tr-1-cjLdcP.png</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2999</v>
+        <v>2799</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2219,20 +2233,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nike Air Max 95</t>
+          <t>Nike E-Series AD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/208ac031-f5de-44ed-9843-f96290d8a9fe/calzado-air-max-95-P5LZn9.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e7fa4d9f-a43e-40e6-8d33-227bb5305592/calzado-e-series-ad-Tmcn49.png</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>999</v>
+        <v>2199</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2247,20 +2261,20 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nike Phantom GT2 Academy FlyEase</t>
+          <t>Nike Victory Pro 3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7c25bae4-e37d-4aaf-8ef4-4112c13dc771/calzado-de-f%C3%BAtbol-para-terrenos-m%C3%BAltiples-f%C3%A1ciles-de-poner-y-quitar-phantom-gt2-academy-flyease-Jj17G9.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b33c1434-2e15-446b-b420-fc28098c6184/calzado-de-golf-victory-pro-3-226Vn7.png</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1199</v>
+        <v>3899</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2275,20 +2289,20 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nike Air Max Solo</t>
+          <t>Air Jordan 1 Low SE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3118f22d-7b4e-4125-8464-aa82d1f862ed/calzado-air-max-solo-XlRpk3.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/07f289b9-7ca1-49ec-a347-b69b95e17032/calzado-air-jordan-1-low-se-q7BBTD.png</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2399</v>
+        <v>4099</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2303,20 +2317,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nike Pegasus 40</t>
+          <t>Nike Air Max 90</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a2cc0e62-3045-4e97-8d7b-2cbe5ec9dcd9/calzado-de-running-en-carretera-pegasus-40-HTDVsQ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7dc58025-e23b-496a-86de-ef2ef742b1bf/calzado-air-max-90-r9JCqt.png</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1799</v>
+        <v>3599</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2331,20 +2345,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nike Oneonta Next Nature</t>
+          <t>Nike Tiempo Legend 10 Pro</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0d34407f-1323-4121-992d-14ed80519ddc/sandalias-oneonta-next-nature-j0xVhX.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c8e7ad52-cc96-4b7c-bc58-04caf81aa2a2/calzado-de-f%C3%BAtbol-de-corte-low-para-pasto-sint%C3%A9tico-turf-tiempo-legend-10-pro-54VNn8.png</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1649</v>
+        <v>4899</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2359,20 +2373,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nike Air Max 1</t>
+          <t>Nike Legend Essential 3 Next Nature</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/eee08a1e-38b4-459e-ab34-9b2342d7692c/calzado-air-max-1-bnffzw.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e23e8fcd-c5f3-4279-93d5-a9a719ff5514/calzado-de-entrenamiento-legend-essential-3-next-nature-9jT6tl.png</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3299</v>
+        <v>3999</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2387,20 +2401,20 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nike Metcon 9</t>
+          <t>Nike Air Max 1 '86 OG G</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/46e537d4-38f1-4ab6-86e3-9316a7450d43/calzado-de-entrenamiento-metcon-9-ndTxtM.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6396ccee-dde6-4ddb-a27e-9a3b98dae991/calzado-de-golf-air-max-1-86-og-g-8xpNmV.png</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1399</v>
+        <v>1949</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2415,20 +2429,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nike Winflo 10</t>
+          <t>Nike Air Max 270</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d5b5d7a1-8d6f-41c3-8281-d9f1764666fd/calzado-de-running-en-carretera-winflo-10-4147B1.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/s6dp2gck3oukxj9csz5y/calzado-air-max-270-nnTrqDGR.png</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2799</v>
+        <v>1799</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2443,20 +2457,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nike ACG Mountain Fly 2 Low</t>
+          <t>Zion 3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3462a093-266c-43f5-b98e-3560c9b0788e/calzado-acg-mountain-fly-2-low-wdZz8G.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/5d2ab7aa-e7c6-4670-857a-65aa35afbe38/calzado-de-b%C3%A1squetbol-zion-3-n9m00J.png</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2199</v>
+        <v>3099</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2471,20 +2485,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Nike Downshifter 12</t>
+          <t>Nike Cortez</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/db98a67a-a711-43db-b247-2c4c4093dbe9/calzado-de-running-en-carretera-downshifter-12-srMC9V.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3734282-d3ff-4df6-96bd-bbe1227ef63c/calzado-cortez-VjtFR0.png</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2249</v>
+        <v>2999</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2499,20 +2513,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nike Pegasus FlyEase</t>
+          <t>Nike Air Max Pulse</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/30529eb7-dadb-4ccc-9664-5be6c9a4a0a5/calzado-de-running-para-carretera-f%C3%A1cil-de-poner-y-quitar-pegasus-flyease-8Thd96.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8535fa44-afb6-4a64-aac4-3a9b769af79e/calzado-air-max-pulse-zX5zBt.png</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4499</v>
+        <v>2999</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2527,20 +2541,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nike Lunargato II</t>
+          <t>Nike Go FlyEase</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3c127c2-2808-4482-91fa-2de3093814df/calzado-de-f%C3%BAtbol-para-cancha-cubierta-lunargato-2-T7pv1J.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0e71e52d-be87-4397-aeb7-1d528a8f6513/calzado-f%C3%A1cil-de-poner-y-quitar-go-flyease-4bM44t.png</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1499</v>
+        <v>1699</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2555,20 +2569,20 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nike City Rep TR</t>
+          <t>Nike Dunk Low Retro Premium</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6abba377-c4b2-4b54-be8e-6578430dbfb5/calzado-de-entrenamiento-city-rep-tr-jsBbQm.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8409c3b2-add4-4b18-927f-2767435a660b/calzado-dunk-low-retro-premium-LRJJV6.png</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2999</v>
+        <v>2659</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2583,20 +2597,20 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Retro Premium</t>
+          <t>Nike Air Dunk Jumbo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3a727ff4-9bb2-471c-8ee0-80e0e8148f77/calzado-dunk-low-retro-premium-4S8Pr6.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/15724a2d-3ef7-4e16-86b8-570f314bab13/calzado-air-dunk-jumbo-v3CsD0.png</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3299</v>
+        <v>3799</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2611,20 +2625,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jumpman MVP</t>
+          <t>Nike Full Force Low</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/ba08723a-a8e4-496e-b0f5-66436807076e/calzado-jumpman-mvp-wm0F96.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d1acc841-5bd4-4a06-811a-95711e9c7a73/calzado-full-force-low-X3fMDJ.png</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3999</v>
+        <v>2199</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2639,20 +2653,20 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 '07 LV8</t>
+          <t>Nike Air More Uptempo '96</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b50c5efb-6942-4be0-872e-1433bb92de8a/calzado-air-force-1-07-lv8-NFvR6v.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/664360db-6df8-4b51-8e7d-a7f06936b3ea/calzado-air-more-uptempo-96-nsRPpq.png</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2049</v>
+        <v>3799</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2667,20 +2681,20 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 GTX</t>
+          <t>Nike City Rep TR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1bb96f3b-ea2b-422c-ab0d-49f06c3c54ef/calzado-air-force-1-gtx-GpZp3J.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6abba377-c4b2-4b54-be8e-6578430dbfb5/calzado-de-entrenamiento-city-rep-tr-jsBbQm.png</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1999</v>
+        <v>3999</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2695,20 +2709,20 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nike Full Force Low</t>
+          <t>Nike Waffle Debut</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d1acc841-5bd4-4a06-811a-95711e9c7a73/calzado-full-force-low-X3fMDJ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/805d2d70-33f4-4dd1-ba8f-df20b238bfcb/calzado-waffle-debut-Wdmx6G.png</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3999</v>
+        <v>3599</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2723,20 +2737,20 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 '07 EasyOn</t>
+          <t>Nike Manoa Leather</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f8dfa191-60b3-44c1-b730-b25e0a908c35/calzado-air-force-1-07-easyon-rLFV2F.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/rorabfpoffxpmekxfaq7/botas-manoa-leather-xLgRqK.png</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>899</v>
+        <v>2199</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2751,20 +2765,20 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nike Air Max Bolt</t>
+          <t>Nike Air Force 1 GTX</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d9d0e89b-884b-43fe-b1ab-e2b7e49a6553/calzado-air-max-bolt-6X41B1.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1bb96f3b-ea2b-422c-ab0d-49f06c3c54ef/calzado-air-force-1-gtx-GpZp3J.png</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1799</v>
+        <v>3999</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2779,20 +2793,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nike Manoa Leather</t>
+          <t>Nike MC Trainer 2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/rorabfpoffxpmekxfaq7/botas-manoa-leather-xLgRqK.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/343e4e23-6a79-470c-822f-5bfcadbf5c9f/calzado-de-entrenamiento-1100-trainer-2-vGRwc3.png</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1249</v>
+        <v>2474</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2807,20 +2821,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nike Air Flight Lite Mid</t>
+          <t>Jordan Stay Loyal 2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b4f34969-b968-47ac-aca8-d0b780ad8b2f/calzado-air-flight-lite-mid-q4LT7T.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/8ba3216b-1961-453e-9407-685cd6b3360d/calzado-jordan-stay-loyal-2-LmJ6Fh.png</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2499</v>
+        <v>3299</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2835,20 +2849,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain Jumpman MVP</t>
+          <t>Jordan Series ES</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/ce38e3d4-7382-4d01-8984-3c5667f7e465/calzado-paris-saint-germain-jumpman-mvp-SrRfB5.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b8165104-b53d-4876-9154-f126165174f8/calzado-jordan-series-es-kSNd8k.png</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5099</v>
+        <v>3099</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2863,20 +2877,20 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Nike Air More Uptempo '96</t>
+          <t>Nike Dunk High Retro SE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b04ce0c8-637e-451c-b946-ef13422e3c6a/calzado-air-more-uptempo-96-bvgl1S.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8a73f26b-b258-4681-8907-bf9deee2fe23/calzado-dunk-high-retro-se-VTbc44.png</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1099</v>
+        <v>2299</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2891,20 +2905,20 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LeBron NXXT Gen</t>
+          <t>Giannis Immortality 3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4a67e081-afef-446d-a514-15771a6be117/calzado-de-b%C3%A1squetbol-lebron-nxxt-gen-VShP8m.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3e521f93-92df-4d95-acc7-d56eaceca009/calzado-de-b%C3%A1squetbol-giannis-immortality-3-LwJmHJ.png</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1189</v>
+        <v>4099</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2919,20 +2933,20 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jordan Stay Loyal 3</t>
+          <t>Air Jordan 1 Low OG "White/Red"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/1de98734-b035-44d0-9cd8-957a4cf08e4b/calzado-jordan-stay-loyal-3-MrJJXG.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/e1f10ac9-74ae-42ef-bb39-33f94474c127/calzado-air-jordan-1-low-og-white-red.png</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2199</v>
+        <v>1319</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2947,20 +2961,20 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Air Jordan 1 Low G</t>
+          <t>Nike Lunar Force 1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/d01cb6e6-5d25-46e6-8851-2bf514d9066c/calzado-de-golf-air-jordan-1-low-g-knwwrG.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/89a91ebd-3e3d-4550-b10d-561f6ebba30a/duckboot-lunar-force-1-HrBZjs.png</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1074</v>
+        <v>1799</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2975,20 +2989,20 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Luka 2 "Bred"</t>
+          <t>Nike SB Force 58</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/da609d2f-33ba-486f-b192-5044307f9342/calzado-de-b%C3%A1squetbol-luka-2-bred-W1GZ1g.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ec9b4815-cf1a-4f1b-8269-9a32552dbf4f/calzado-de-skateboarding-sb-force-58-6fn4Wl.png</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2149</v>
+        <v>2499</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3003,20 +3017,20 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nike Defy All Day</t>
+          <t>Air Jordan 1 Low G</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2f9b21da-6e5f-43ec-bab3-6cb8c86cf85d/calzado-de-entrenamiento-defy-all-day-JL753w.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/d01cb6e6-5d25-46e6-8851-2bf514d9066c/calzado-de-golf-air-jordan-1-low-g-knwwrG.png</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1149</v>
+        <v>2799</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3031,20 +3045,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NOCTA Glide</t>
+          <t>Luka 2 "Bred"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5b6354ef-00e0-4333-94d5-0d2b538c4bfd/calzado-nocta-glide.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/da609d2f-33ba-486f-b192-5044307f9342/calzado-de-b%C3%A1squetbol-luka-2-bred-W1GZ1g.png</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2299</v>
+        <v>1349</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3059,20 +3073,20 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nike Alphafly 2</t>
+          <t>Nike Defy All Day</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/bb8f3b69-8a65-4d52-8a60-fec0bd0c7227/calzado-de-carrera-en-carretera-alphafly-2-jmPrD5.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2f9b21da-6e5f-43ec-bab3-6cb8c86cf85d/calzado-de-entrenamiento-defy-all-day-JL753w.png</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3999</v>
+        <v>1799</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3087,20 +3101,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Nike Air Max 1 '86 OG G</t>
+          <t>Nike G.T. Jump 2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/279b54ed-f1a0-45d8-8a89-142536ce5044/calzado-de-golf-air-max-1-86-og-g-2mnBvl.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/650dab39-06b6-43f0-8a03-e49729e8e922/gt-calzado-de-b%C3%A1squetbol-jump-2-20sRVc.png</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1999</v>
+        <v>2319</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3115,20 +3129,20 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Nike SB Zoom Blazer Mid</t>
+          <t>Nike Tech Hera</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/fambaubeufwpravdy1xs/calzado-de-skateboarding-sb-zoom-blazer-mid-WyTAj8OA.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/909089ee-5c78-4925-a1fb-5de52e337930/calzado-tech-hera-F8XMxm.png</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2249</v>
+        <v>2899</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3143,20 +3157,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Nike Motiva SE</t>
+          <t>Nike Alphafly 2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2f019d89-a17e-4598-a92f-7d9a4e0f4a2e/calzado-de-caminata-premium-motiva-se-v3SRZL.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/bb8f3b69-8a65-4d52-8a60-fec0bd0c7227/calzado-de-carrera-en-carretera-alphafly-2-jmPrD5.png</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4499</v>
+        <v>2079</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3171,20 +3185,20 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nike Zegama</t>
+          <t>Nike Flex Experience Run 11</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6d2f792b-b4f5-47b7-8f05-8358c8704679/calzado-de-trail-running-zegama-RDrrBB.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4355b135-68c3-43ec-b96d-eb7d17823127/calzado-de-running-en-carretera-flex-experience-run-11-c71bWh.png</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1949</v>
+        <v>1999</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3199,20 +3213,20 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JA 1</t>
+          <t>Air Jordan 1 Mid SE Craft</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/493d0693-7df1-4c89-8708-bb1542203818/calzado-de-b%C3%A1squetbol-ja-1-LBlTVt.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/1aaf4592-f6b3-47f8-8d0d-2a58ca7e2073/calzado-air-jordan-1-mid-se-craft-sB5sZq.png</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3899</v>
+        <v>2999</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3227,20 +3241,20 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NikeCourt Vapor Lite 2</t>
+          <t>Nike Victori One</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6bfbc9e7-a839-41f0-a7b0-fd2a01f9618e/calzado-de-tenis-de-cancha-dura-court-vapor-lite-2-4lVK6S.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a277aa72-0b73-48da-8a6a-1fe1a21a6f03/chanclas-victori-one-XvDFHt.png</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1049</v>
+        <v>1724</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3255,20 +3269,20 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nike Pegasus Turbo</t>
+          <t>Nike Wildhorse 8</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a49b416b-a8f8-4815-a90c-95b72444203a/calzado-de-running-en-carretera-pegasus-turbo-ZFXf4W.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/498ef6eb-a55e-4756-9d93-1852d29bdb0b/calzado-de-trail-running-wildhorse-8-qwnP9v.png</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2099</v>
+        <v>2299</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3283,20 +3297,20 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nike Mercurial Superfly 9 Club</t>
+          <t>Nike Revolution 6</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/86dbc893-2e66-4c2a-8797-5597ac8ed113/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-mercurial-superfly-9-club-B7c908.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8de4f342-917b-4690-be10-80946f093287/calzado-de-running-en-carretera-revolution-6-mf0Bmq.png</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1249</v>
+        <v>3199</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3311,20 +3325,20 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Nike Tiempo Legend 10 Academy</t>
+          <t>KD Trey 5 X</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/aa55fc00-1ee0-401e-856a-e7ad24a4944f/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-tiempo-legend-10-academy-Pz0x3b.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7478742f-d613-422f-8ca1-f15aca7e9df8/calzado-de-b%C3%A1squetbol-kd-trey-5-10-4lz95M.png</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2499</v>
+        <v>2379</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3339,20 +3353,20 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Nike Phantom Luna</t>
+          <t>Air Jordan 1 Mid SE</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b482ea4c-41cc-411a-b042-a86fe9aaf38e/calzado-de-f%C3%BAtbol-para-terreno-firme-phantom-luna-stRh5r.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/373f05e2-131e-4532-93ea-def1d33edb28/calzado-air-jordan-1-mid-se-DRWvCM.png</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>899</v>
+        <v>1274</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3367,20 +3381,20 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Nike Rival Distance</t>
+          <t>Nike SB Zoom Blazer Mid</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/55d33734-124a-4d3a-b438-9fefc4a43046/calzado-de-atletismo-con-clavos-rival-distance-sr2ZP2.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/fambaubeufwpravdy1xs/calzado-de-skateboarding-sb-zoom-blazer-mid-WyTAj8OA.png</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1499</v>
+        <v>1699</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3395,20 +3409,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nike ACG Air Zoom Gaiadome GORE-TEX</t>
+          <t>Nike Juniper Trail 2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7f4e6501-c0c8-4c1a-b06e-3c44fdc7a28b/calzado-acg-air-zoom-gaiadome-gore-tex-zT8TtL.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2d7c4c6c-d247-489a-bece-e96faf853ccd/calzado-de-trail-running-juniper-trail-2-wLZd8H.png</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2999</v>
+        <v>2399</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3423,20 +3437,20 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Nike Revolution 7</t>
+          <t>Jordan Max Aura 5</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8d7e9e0b-7100-4a95-82ae-130c4076df64/calzado-de-running-en-carretera-revolution-7-Msm1F4.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/e167643b-ee50-49f6-9705-5f0eee2178bb/calzado-jordan-max-aura-5-8FDN1t.png</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>849</v>
+        <v>2079</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3451,20 +3465,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Nike Air Max 270</t>
+          <t>Nike Quest 5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/s6dp2gck3oukxj9csz5y/calzado-air-max-270-nnTrqDGR.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/293ef571-2a57-4a18-98e8-ba83b2caa183/calzado-de-running-en-carretera-quest-5-NxdqjN.png</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1699</v>
+        <v>1999</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3479,20 +3493,20 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Nike Zoom Mercurial Vapor 15 Academy Kylian Mbappé MG</t>
+          <t>NikeCourt Zoom Pro</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/406d78e2-49bb-42ab-a4b3-53d442c3596f/calzado-de-f%C3%BAtbol-para-terrenos-m%C3%BAltiples-zoom-mercurial-vapor-15-academy-kylian-mbapp%C3%A9-mg-pLSWrx.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f2cbbfef-cd5d-4d65-8ef1-79143fe51da6/calzado-de-tenis-para-cancha-dura-court-zoom-pro-lp6cGP.png</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3499</v>
+        <v>2999</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3507,20 +3521,20 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LeBron XX x Mimi Plange "Ceremony"</t>
+          <t>Nike Metcon 9 EasyOn</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b2fb761d-5008-49c0-9ca8-edc30ec325a9/calzado-de-b%C3%A1squetbol-lebron-20-10-mimi-plange-ceremony-DH9bmg.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3fbab1d2-3c0d-4dea-b407-b0e555285ff5/calzado-de-entrenamiento-metcon-9-easyon-MNJwV2.png</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1649</v>
+        <v>1724</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3535,20 +3549,20 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Nike Superfly 9 Academy Mercurial Dream Speed</t>
+          <t>Nike Pegasus 40 (Club América)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7ad07c10-5956-442d-83b7-a760cde85520/calzado-de-f%C3%BAtbol-de-corte-alto-superfly-9-academy-mercurial-dream-speed-mg-39fWKG.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/931ea8e2-761d-4a3f-b0c1-fffec306ae76/calzado-de-running-en-carretera-pegasus-40-club-am%C3%A9rica-NzsCQx.png</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1249</v>
+        <v>2299</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3563,20 +3577,20 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nike Air Alpha Force 88</t>
+          <t>Nike Mercurial Vapor 15 Club</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2578dfa3-49a2-472a-accb-a710b5346ab5/calzado-air-alpha-force-88-4xk6lX.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/fb8af0ab-3bdd-4041-829d-05cf4ad7e8d7/calzado-de-f%C3%BAtbol-de-corte-low-para-pasto-sint%C3%A9tico-turf-mercurial-vapor-15-club-rgHBRj.png</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2499</v>
+        <v>2379</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3591,20 +3605,20 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nike x MMW 005</t>
+          <t>Nike Phantom GX Club</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8e9e0c73-68d0-4215-9b9c-129475422ea3/chanclas-10-mmw-005-bRQRQP.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b033781c-053e-41b8-90c8-b678fa24171f/calzado-de-f%C3%BAtbol-de-corte-low-para-pasto-sint%C3%A9tico-turf-phantom-gx-club-0KvsRR.png</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>999</v>
+        <v>2799</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3619,20 +3633,20 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Jordan ADG 4 x Eastside Golf</t>
+          <t>Nike G.T. Hustle 2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/86ed8b8b-e90a-488b-ad42-0480d59093e6/calzado-de-golf-jordan-adg-4-10-eastside-golf-3GWjQh.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e1f0c43a-bba5-4196-8117-98d8e81a0dc9/gt-calzado-de-b%C3%A1squetbol-hustle-2-TCHHlF.png</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1849</v>
+        <v>4299</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3647,20 +3661,20 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Air Jordan 7 Retro</t>
+          <t>Nike Zoom Mercurial Vapor 15 Academy Kylian Mbappé MG</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/59dd6e46-4b73-460e-b4b1-c9cba51099c3/calzado-air-jordan-7-retro-BZq2sC.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/406d78e2-49bb-42ab-a4b3-53d442c3596f/calzado-de-f%C3%BAtbol-para-terrenos-m%C3%BAltiples-zoom-mercurial-vapor-15-academy-kylian-mbapp%C3%A9-mg-pLSWrx.png</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3699</v>
+        <v>1499</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3675,20 +3689,20 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nike Air Max Excee</t>
+          <t>Nike Phantom Luna</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f701be0e-cc3f-4c11-99cf-47f87aeaa024/calzado-air-max-excee-GfgrpW.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b482ea4c-41cc-411a-b042-a86fe9aaf38e/calzado-de-f%C3%BAtbol-high-para-terreno-firme-phantom-luna-stRh5r.png</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>949</v>
+        <v>2599</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3703,20 +3717,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Nike Mercurial Vapor 15 Club</t>
+          <t>Nike Rival Distance</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/df5bd62d-3e10-44dc-8e9c-fb6a25c958f6/calzado-de-f%C3%BAtbol-para-terrenos-m%C3%BAltiples-mercurial-vapor-15-club-FpcB3d.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/55d33734-124a-4d3a-b438-9fefc4a43046/calzado-de-atletismo-con-clavos-rival-distance-sr2ZP2.png</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1899</v>
+        <v>3249</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3731,20 +3745,20 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Nike In-Season TR 13</t>
+          <t>Nike ACG Air Zoom Gaiadome GORE-TEX</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d11acbbf-0389-4569-b03b-dce793e951b2/calzado-de-entrenamiento-in-season-tr-13-tGhj5T.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7f4e6501-c0c8-4c1a-b06e-3c44fdc7a28b/calzado-acg-air-zoom-gaiadome-gore-tex-zT8TtL.png</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1499</v>
+        <v>1444</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3759,20 +3773,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Jordan Max Aura 5</t>
+          <t>Nike Air Max TW</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/d50af8d1-abfd-4aa7-a275-43dfd0ca1e4f/calzado-jordan-max-aura-5-8FDN1t.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/01f4cfaf-73f8-44fa-a26c-9d68883e4d3a/calzado-air-max-tw-p7Kfkp.png</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1349</v>
+        <v>1699</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3787,20 +3801,20 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Nike Air Max SYSTM</t>
+          <t>LeBron XX x Mimi Plange "Ceremony"</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/59877a71-85ee-482b-a804-155de1a26f3f/calzado-air-max-systm-kKHC4J.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b2fb761d-5008-49c0-9ca8-edc30ec325a9/calzado-de-b%C3%A1squetbol-lebron-20-10-mimi-plange-ceremony-DH9bmg.png</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1154</v>
+        <v>2159</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3815,20 +3829,20 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Nike G.T. Hustle 2</t>
+          <t>Nike Air Alpha Force 88</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/36c1c7df-1e95-4c72-b575-247b6999b430/gt-calzado-de-b%C3%A1squetbol-hustle-2-TCHHlF.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2578dfa3-49a2-472a-accb-a710b5346ab5/calzado-air-alpha-force-88-4xk6lX.png</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1649</v>
+        <v>2699</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3843,20 +3857,20 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Luka 2 "Lake Bled"</t>
+          <t>Nike x MMW 005</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/72bd0f40-ede1-44ad-b7fc-98fc55bb506c/calzado-de-b%C3%A1squetbol-luka-2-lake-bled-Zn8K0N.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/8e9e0c73-68d0-4215-9b9c-129475422ea3/chanclas-10-mmw-005-bRQRQP.png</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2079</v>
+        <v>5524</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3871,20 +3885,20 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nike Air Force 1 Low Retro</t>
+          <t>Nike Air Max 97</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5751238d-b641-4b19-ac1f-10a679e4c502/calzado-air-force-1-low-retro-ZTPQZh.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b212e5bf-ec2f-4b0d-b759-37e893003043/calzado-air-max-97-z3TlrlVN.png</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2599</v>
+        <v>6499</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3899,20 +3913,20 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Nike Air Flight Huarache</t>
+          <t>Nike In-Season TR 13</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7b12dffc-1c76-4076-9b6f-187d8c530951/calzado-air-flight-huarache-G5jRsg.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5e67e359-151f-4dfc-82cc-5eef12b1afae/calzado-de-entrenamiento-in-season-tr-13-tGhj5T.png</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2159</v>
+        <v>3799</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3927,20 +3941,20 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NikeCourt Air Zoom Lite 3</t>
+          <t>Nike Air Max SYSTM</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/dbe9fe76-7157-47bc-9cb7-1158d2019f4b/calzado-de-tenis-court-air-zoom-lite-3-VsWz6m.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f9386ccb-5902-413a-b1e3-a86941a66a73/calzado-air-max-systm-kKHC4J.png</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2699</v>
+        <v>1349</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3955,20 +3969,20 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nike Air VaporMax 2023 Flyknit</t>
+          <t>Nike Superfly 9 Elite Mercurial Dream Speed</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c44dc5a9-e033-44df-80c6-9af45f3e6972/calzado-air-vapormax-2023-flyknit-fnRM4R.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/589c8989-8cab-42f6-abb9-0c17e7efd655/calzado-de-f%C3%BAtbol-de-corte-alto-fg-superfly-9-elite-mercurial-dream-speed-5bSdgn.png</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2599</v>
+        <v>1799</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3983,20 +3997,20 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Jordan ADG 4</t>
+          <t>Nike Air Force 1 Low Retro</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/33348623-56c1-4ddf-8375-50307e6459da/calzado-de-golf-jordan-adg-4-053rHM.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/907b04b0-97f2-4297-8a00-c3a1f1cb6b69/calzado-air-force-1-low-retro-ZTPQZh.png</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3484</v>
+        <v>2294</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4011,20 +4025,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sabrina 1 "Spark"</t>
+          <t>Nike Air VaporMax 2023 Flyknit</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/40d5a277-2ea8-4df8-9c54-fe3ae3dcf803/calzado-de-b%C3%A1squetbol-sabrina-1-spark-VV4xLp.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6ff6e596-2f93-47f8-98a4-611de407bffb/calzado-air-vapormax-2023-flyknit-fnRM4R.png</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2799</v>
+        <v>2699</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4039,20 +4053,20 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NikeCourt Zoom Vapor Cage 4 Rafa</t>
+          <t>Jordan ADG 4</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/987af496-f9b2-478c-b032-b54d9a603645/calzado-de-tenis-de-cancha-dura-court-zoom-vapor-cage-4-rafa-1t7FzV.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/33348623-56c1-4ddf-8375-50307e6459da/calzado-de-golf-jordan-adg-4-053rHM.png</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1619</v>
+        <v>3399</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4067,20 +4081,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>KD Trey 5 X</t>
+          <t>Sabrina 1 "Spark"</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/40b9c5f6-917e-4bb9-8abe-95fafaf8f78d/calzado-de-b%C3%A1squetbol-kd-trey-5-10-4lz95M.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/40d5a277-2ea8-4df8-9c54-fe3ae3dcf803/calzado-de-b%C3%A1squetbol-sabrina-1-spark-VV4xLp.png</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2699</v>
+        <v>2174</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4095,7 +4109,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4108,7 +4122,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3999</v>
+        <v>2899</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4123,7 +4137,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4136,7 +4150,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1839</v>
+        <v>1274</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4151,20 +4165,20 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NOCTA x Nike Hot Step Air Terra</t>
+          <t>Ja 1 "Guava Ice"</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/78a80376-3736-40b5-b487-422e0d93ff61/calzado-nocta-10-hot-step-air-terra-tzklx6.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c74ef60c-a48b-49bf-a4fc-0916241f0adc/calzado-de-b%C3%A1squetbol-ja-1-guava-ice-RwJZZ9.png</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2299</v>
+        <v>1699</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4179,7 +4193,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4188,11 +4202,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a522e8ad-d96e-4b50-9d39-4ce2ea6c3e27/calzado-de-f%C3%BAtbol-para-terreno-firme-mercurial-superfly-9-elite-j49dKx.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a522e8ad-d96e-4b50-9d39-4ce2ea6c3e27/calzado-de-f%C3%BAtbol-de-corte-high-para-terreno-firme-mercurial-superfly-9-elite-j49dKx.png</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2599</v>
+        <v>1799</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4207,7 +4221,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4220,7 +4234,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1099</v>
+        <v>2399</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4235,7 +4249,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4248,7 +4262,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2199</v>
+        <v>3299</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4263,7 +4277,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4276,7 +4290,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2499</v>
+        <v>1799</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4291,7 +4305,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4304,7 +4318,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1919</v>
+        <v>2399</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4319,20 +4333,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nike Phantom GX Club</t>
+          <t>Nike Tanjun</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/b033781c-053e-41b8-90c8-b678fa24171f/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-phantom-gx-club-0KvsRR.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2ad84140-7950-4cee-b0b0-d02b351dccba/calzado-tanjun-cFVjcP.png</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3199</v>
+        <v>2699</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4347,20 +4361,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nike Tanjun</t>
+          <t>LeBron Witness 8</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/0e53b6ab-63bc-4fe9-b0d8-82dffa24638d/calzado-tanjun-cFVjcP.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ea31e617-85eb-485a-bc0d-f81714577b13/calzado-de-b%C3%A1squetbol-lebron-witness-8-Hc4PFF.png</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2399</v>
+        <v>2999</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4375,20 +4389,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Nike Rival Waffle 6</t>
+          <t>Nike SB Zoom Blazer Low Pro GT</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/47963c50-1fa1-4f43-af8c-83e36a5978d7/calzado-de-atletismo-para-media-distancia-zoom-rival-waffle-6-RlLdt3.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5742f317-d0c8-4d01-8a66-81d6f4bc73ca/calzado-de-skateboarding-sb-zoom-blazer-low-pro-gt-bMwZmc.png</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2999</v>
+        <v>1574</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4403,20 +4417,20 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nike Free Metcon 5</t>
+          <t>LeBron NXXT Gen</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3b59bde-b5ea-4b89-8d57-cefbc326010e/calzado-de-entrenamiento-free-metcon-5-0nJCzq.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4a67e081-afef-446d-a514-15771a6be117/calzado-de-b%C3%A1squetbol-lebron-nxxt-gen-VShP8m.png</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3689</v>
+        <v>2099</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4431,20 +4445,20 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Air Jordan I High G x Eastside Golf</t>
+          <t>Nike SB Dunk Low Pro Premium</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/4c3f250c-6e27-4a79-93c5-4b57710c4431/calzado-de-golf-air-jordan-1-high-g-10-eastside-golf-T3DPhw.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f8f49bd3-68df-47c4-b873-df9cbc6e7da2/calzado-de-skateboarding-sb-dunk-low-pro-premium-K9RX8N.png</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>4099</v>
+        <v>2399</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4459,20 +4473,20 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nike Alphafly</t>
+          <t>Nike Streakfly</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e1a47258-2d88-43ec-af27-6929c10bb702/calzado-de-carrera-en-carretera-alphafly-mGK8M0.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/332f7c6e-daf5-4a8c-94fa-49db6399d133/calzado-de-carrera-en-carretera-streakfly-wWhMKs.png</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2464</v>
+        <v>3199</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4487,20 +4501,20 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Jordan Series Mid</t>
+          <t>Nike Offcourt</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/e57204bc-21ce-4423-8136-0dbe833e3074/calzado-jordan-series-mid-MV9QRP.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e3f0390b-4ae3-4d0b-a8bd-194db860b6ea/chancla-offcourt-VxPVCN.png</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2899</v>
+        <v>1499</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4515,20 +4529,20 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LeBron Witness 8</t>
+          <t>Nike Mercurial Superfly 9 Pro</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/ea31e617-85eb-485a-bc0d-f81714577b13/calzado-de-b%C3%A1squetbol-lebron-witness-8-Hc4PFF.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7d909b37-b82b-47ca-b1db-a149cf3a9529/calzado-de-f%C3%BAtbol-de-corte-high-para-terreno-firme-mercurial-superfly-9-pro-h4DV4s.png</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3599</v>
+        <v>1999</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4543,20 +4557,20 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nike SB Zoom Blazer Low Pro GT</t>
+          <t>Jordan Hydro XI</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/bd88299d-4b26-4427-86a8-549bee1431f6/calzado-de-skateboarding-sb-zoom-blazer-low-pro-gt-bMwZmc.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/8ff83e45-be98-4dba-85f4-e7ef398cd533/chanclas-jordan-hydro-11-bv9Q2z.png</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3249</v>
+        <v>2469</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4571,24 +4585,24 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nike SB Dunk Low Pro Premium</t>
+          <t>Nike Court Legacy</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f8f49bd3-68df-47c4-b873-df9cbc6e7da2/calzado-de-skateboarding-sb-dunk-low-pro-premium-K9RX8N.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/aaac8e7b-b62e-4023-9844-7ac4a0577f0a/calzado-court-legacy-Jm9qQX.png</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1699</v>
+        <v>1529</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Descripcion del tenis</t>
+          <t>Honrando una historia arraigada en la cultura del tenis, el Court Legacy te trae un básico probado por el tiempo con un estilo impecable. Su cuero sintético texturizado en la parte superior, la tracción duradera y colores clásicos le dan un estilo ganador de partidos.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4599,20 +4613,20 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nike Streakfly</t>
+          <t>Nike Air Trainer 1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/84c1e0d5-ac53-4d7b-8991-f5d9a9cb3465/calzado-de-carrera-en-carretera-streakfly-wWhMKs.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/95526a28-5170-4f8e-ad59-37bc2395e8d8/calzado-air-trainer-1-pbmbGj.png</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3299</v>
+        <v>1819</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4627,20 +4641,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nike Offcourt</t>
+          <t>Nike Killshot 2 Leather</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/841c0c34-f108-454a-9d2b-045aedbc35ee/chancla-offcourt-VxPVCN.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/c34a5e6d-c924-443a-aff6-edc56d021c8d/calzado-killshot-2-leather-Xp4rM5.png</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2279</v>
+        <v>2599</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4655,20 +4669,20 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nike Mercurial Superfly 9 Pro</t>
+          <t>Air Jordan 2 Retro</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7d909b37-b82b-47ca-b1db-a149cf3a9529/calzado-de-f%C3%BAtbol-para-terreno-firme-mercurial-superfly-9-pro-h4DV4s.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/d3d48726-7be1-486f-a9af-094aadb082e6/calzado-air-jordan-2-retro.png</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3799</v>
+        <v>3299</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4683,20 +4697,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nike Lunar Force 1</t>
+          <t>Air Jordan 2 Retro Low</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/89a91ebd-3e3d-4550-b10d-561f6ebba30a/duckboot-lunar-force-1-HrBZjs.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/af4835cc-d2ea-4431-bc74-64c6d01c2432/calzado-air-jordan-2-retro-low-SbtMfn.png</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4711,20 +4725,20 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Jordan Hydro XI</t>
+          <t>Nike Zoom Mamba 6</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/8ff83e45-be98-4dba-85f4-e7ef398cd533/chanclas-jordan-hydro-11-bv9Q2z.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3c0307eb-5222-4d8e-b6a6-b4d93d75d17a/calzado-de-atletismo-con-clavos-zoom-mamba-6-gthbp3.png</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2279</v>
+        <v>3899</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4739,20 +4753,20 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nike Air Max 1 Premium</t>
+          <t>Jordan One Take 4</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4c6e5e0e-9b41-45e8-857d-f20ea5a078b6/calzado-air-max-1-premium.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/0d235ec8-689d-421e-9d6e-c8e2351878da/calzado-jordan-one-take-4-txkWrJ.png</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3799</v>
+        <v>1279</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4767,20 +4781,20 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nike Cortez</t>
+          <t>Freak 5</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/a3734282-d3ff-4df6-96bd-bbe1227ef63c/calzado-cortez-VjtFR0.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/96d7b635-7777-4d68-a94b-086a53182c43/calzado-de-b%C3%A1squetbol-freak-5-9cDXCm.png</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1799</v>
+        <v>1199</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4795,20 +4809,20 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nike Air Huarache Runner</t>
+          <t>Nike Mercurial Vapor 15 Pro</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/6fa90dff-89e1-410a-b9bb-8a26565b9e55/calzado-air-huarache-runner-0ctMF4.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d22e2b63-1dee-4731-96f2-350b932407d5/calzado-de-f%C3%BAtbol-de-corte-low-para-pasto-sint%C3%A9tico-turf-mercurial-vapor-15-pro-MPC5Vm.png</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1754</v>
+        <v>1499</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4823,20 +4837,20 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nike Air Max AP</t>
+          <t>Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/9c44e98d-3ea9-443b-806c-51d1e2fa3e76/calzado-air-max-ap-bsbHvP.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5b346224-c403-4985-a1b7-3d394e8c7b46/calzado-acg-lowcate-R9gzz9.png</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2699</v>
+        <v>3009</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4851,20 +4865,20 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nike Air Max Cirro</t>
+          <t>Nike Phantom GX Pro</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/30ba2726-7e1f-4a84-a3ef-1d6f5df9886a/chanclas-air-max-cirro-xTRJxv.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1e1e1203-5847-4abd-8b4a-308fd8339d08/calzado-de-f%C3%BAtbol-de-perfil-bajo-para-terreno-firme-phantom-gx-pro-sQqrxM.png</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2799</v>
+        <v>4299</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4879,20 +4893,20 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ja 1 "Fly"</t>
+          <t>Jordan Post</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e7490924-4177-4f9c-8002-dece72adc898/calzado-de-b%C3%A1squetbol-ja-1-fly-RwJZZ9.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b0cbf8fb-5526-4f55-a9dc-5d399514e404/chancla-jordan-post-zRK4FR.png</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3999</v>
+        <v>2299</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4907,20 +4921,20 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Air Jordan 2 Retro Low</t>
+          <t>Nike Air Dunk Low Jumbo</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/0c61c610-55fe-4183-b0a9-bc917ded34fd/calzado-air-jordan-2-retro-low-SbtMfn.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e5e8e1b4-3056-4a3b-996e-0b117a998562/calzado-air-dunk-low-jumbo-LJbsr4.png</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2899</v>
+        <v>1279</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4935,20 +4949,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nike Zoom Mamba 6</t>
+          <t>Nike SuperRep Go 3 Next Nature Flyknit</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3c0307eb-5222-4d8e-b6a6-b4d93d75d17a/calzado-de-atletismo-con-clavos-zoom-mamba-6-gthbp3.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5a434ae6-29dd-4777-a840-b45de3e3c4b6/calzado-de-entrenamiento-superrep-go-3-next-nature-flyknit-clwc8v.png</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2099</v>
+        <v>1439</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4963,20 +4977,20 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Jordan One Take 4</t>
+          <t>Nike Air Max Plus</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/9f309b7d-9923-4ecf-a5c4-357efbe7e311/calzado-jordan-one-take-4-txkWrJ.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2ca2b884-2f23-4caa-95ac-0103539e00ea/calzado-air-max-plus-vGsr6j.png</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2249</v>
+        <v>1799</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4991,20 +5005,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>346</v>
+        <v>180</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nike Legend Essential 3 Next Nature</t>
+          <t>Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/7b743007-5e24-4db0-b4dd-8a2fde27fa11/calzado-de-entrenamiento-legend-essential-3-next-nature-9jT6tl.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e6da41fa-1be4-4ce5-b89c-22be4f1f02d4/calzado-air-force-1-07-rWtqPn.png</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3749</v>
+        <v>1699</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5019,20 +5033,20 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Freak 5</t>
+          <t>Nike Court Legacy Next Nature</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e981949a-5c38-4b5b-9ab2-c23f66bd7c7b/calzado-de-b%C3%A1squetbol-freak-5-9cDXCm.png</t>
+          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/30f8062f-0f8e-4fb5-9d32-1da71f6dd8e8/calzado-court-legacy-next-nature-mr6MZ1.png</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1259</v>
+        <v>2599</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5040,398 +5054,6 @@
         </is>
       </c>
       <c r="F165" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>348</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Nike Mercurial Vapor 15 Pro</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/86c5adf7-357e-46c5-9389-aa634fd55aac/calzado-de-f%C3%BAtbol-para-pasto-sint%C3%A9tico-turf-mercurial-vapor-15-pro-MPC5Vm.png</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>1799</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>349</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Nike Calm</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e1f8a4a9-7a98-4fdd-8e56-5e52c801a45c/calzado-tipo-mule-calm-HFNG0z.png</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>1699</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>350</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Nike ACG Lowcate</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/029ae55d-7f63-425e-864d-ce4df33960ab/calzado-acg-lowcate-R9gzz9.png</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>351</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>LeBron 20</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/5e546de6-53ca-4a0e-9cfc-78991cd3cb46/calzado-de-b%C3%A1squetbol-lebron-20-756ZMJ.png</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>2699</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>352</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Nike Phantom GX Pro</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/d2db83dd-d540-451e-92b0-4e42258c1434/calzado-de-f%C3%BAtbol-para-terreno-firme-phantom-gx-pro-sQqrxM.png</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>1799</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>353</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Jordan Post</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/u_126ab356-44d8-4a06-89b4-fcdcc8df0245,c_scale,fl_relative,w_1.0,h_1.0,fl_layer_apply/b0cbf8fb-5526-4f55-a9dc-5d399514e404/chancla-jordan-post-zRK4FR.png</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>1699</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>354</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Nike Air Dunk Low Jumbo</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/1814b6e2-2ef8-4c19-a317-05d742848885/calzado-air-dunk-low-jumbo-LJbsr4.png</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>355</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Nike SuperRep Go 3 Next Nature Flyknit</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/91688d0a-77af-4fef-8e18-52932ada8e0b/calzado-de-entrenamiento-superrep-go-3-next-nature-flyknit-clwc8v.png</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>3799</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>356</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Nike Air Max Plus</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/2ca2b884-2f23-4caa-95ac-0103539e00ea/calzado-air-max-plus-vGsr6j.png</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>3999</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>357</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>NikeCourt Zoom Pro</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/e0e20d55-5240-44ec-b0c6-c978ebda59ac/calzado-de-tenis-para-cancha-dura-court-zoom-pro-lp6cGP.png</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>1609</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>358</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Nike Rival Multi</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/4144a9f6-9031-4c52-9f0e-9d6dda42b5b4/calzado-de-clavos-para-eventos-m%C3%BAltiples-de-pista-y-campo-zoom-rival-multi-JnzZpK.png</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>4339</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>359</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Nike Victory Pro 3</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/9a6d9e62-dde1-45d9-a741-52c3535ca180/calzado-de-golf-victory-pro-3-226Vn7.png</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>3299</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>360</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Nike Vaporfly 3</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/f3276ae3-ab93-4ad3-abb8-b12f76e41401/calzado-de-carrera-en-carretera-vaporfly-3-XZZSbK.png</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>2599</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Descripcion del tenis</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>227</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Nike Rival Fly 3</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/3cdb87e5-eb54-4742-9d8e-3fd22704a594/calzado-de-carrera-en-carretera-rival-fly-3-sTqqkg.png</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>3199</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Cuando estés listo para aumentar la velocidad y recorrer la distancia, impúlsate con un modelo diseñado para entrenar y correr. Nuestra versión más reciente incluye amortiguación de espuma que es más suave que nunca y la goma resistente a la abrasión brinda mayor durabilidad en los caminos rocosos. Con actualizaciones como estas, podrás concentrarte mientras avanzas hacia la línea de meta.</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
